--- a/newton.xlsx
+++ b/newton.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="349" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/26/2024 04:45 AM</t>
+      <t>12/26/2024 05:05 AM</t>
     </r>
   </si>
   <si>
@@ -68,7 +68,7 @@
       <rPr>
         <b val="0"/>
       </rPr>
-      <t>Yes</t>
+      <t>No</t>
     </r>
   </si>
   <si>
@@ -78,66 +78,441 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
     <t>Appliances</t>
   </si>
   <si>
     <t>3/4" x 18" Water Heater Supply Line</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6831555</t>
+  </si>
+  <si>
+    <t>6" Drip Pan</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dey Distributing Inc</t>
+  </si>
+  <si>
     <t>6" GE drip pan</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WB32X5075</t>
+  </si>
+  <si>
+    <t>6" GE element</t>
+  </si>
+  <si>
+    <t>469-0610</t>
+  </si>
+  <si>
+    <t>Menards</t>
+  </si>
+  <si>
     <t>6" Heating Element</t>
   </si>
   <si>
     <t>8" Drip Pan</t>
   </si>
   <si>
+    <t>8" GE drip pan</t>
+  </si>
+  <si>
+    <t>WB32X5076</t>
+  </si>
+  <si>
+    <t>8" GE element</t>
+  </si>
+  <si>
+    <t>569-0612</t>
+  </si>
+  <si>
     <t>8" Heating element</t>
   </si>
   <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
+    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
+  </si>
+  <si>
+    <t>6835049</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
+    <t>Richmond? Electric Water Heater Tune Up Kit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6832301</t>
+  </si>
+  <si>
+    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
+  </si>
+  <si>
+    <t>6235506</t>
+  </si>
+  <si>
     <t>Stove</t>
   </si>
   <si>
     <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
   </si>
   <si>
+    <t>6933108</t>
+  </si>
+  <si>
     <t>Electrical</t>
   </si>
   <si>
+    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 10 pk</t>
+  </si>
+  <si>
+    <t>3639850</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>3639863</t>
+  </si>
+  <si>
+    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639834</t>
+  </si>
+  <si>
+    <t>15-Amp White Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639847</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3633944</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
+  </si>
+  <si>
+    <t>3633946</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
+    <t>42" White Indoor LED Ceiling Fan</t>
+  </si>
+  <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
     <t>60W Soft White LED Regular Light Bulb</t>
   </si>
   <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
+  </si>
+  <si>
+    <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pk</t>
+  </si>
+  <si>
+    <t>3534371</t>
+  </si>
+  <si>
+    <t>A15 LED FAN Bulb - 60 Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3530189</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
     <t>B10 FAN Light Bulbs - 60 W</t>
   </si>
   <si>
+    <t>ct as sngl; comes in 6 pack</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3538637</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
     <t>Carbon Monoxide Detector</t>
   </si>
   <si>
+    <t>Hallway only IF garage is attached</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>delta vent fan</t>
+  </si>
+  <si>
     <t>Dryer Outlet 30-Amp 4-Wire Black</t>
   </si>
   <si>
+    <t>3636057</t>
+  </si>
+  <si>
     <t>Electronic Thermostat (for baseboard heater)</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>FireX Direct Wire Ionization Smoke Alarm</t>
   </si>
   <si>
+    <t>3584619</t>
+  </si>
+  <si>
     <t>G25 VANITY Light Bulbs - 40 Watt</t>
   </si>
   <si>
+    <t>3533415</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
     <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
   </si>
   <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
     <t>Universal garage door remote</t>
   </si>
   <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>3533186</t>
+  </si>
+  <si>
     <t>Equipment</t>
   </si>
   <si>
+    <t>Chainsaws</t>
+  </si>
+  <si>
+    <t>Stihl</t>
+  </si>
+  <si>
     <t>DeWalt Light</t>
   </si>
   <si>
+    <t>Acme Tools</t>
+  </si>
+  <si>
+    <t>Drill (Impact)</t>
+  </si>
+  <si>
+    <t>Drill (Regular)</t>
+  </si>
+  <si>
     <t>Hedge Trimmer</t>
   </si>
   <si>
@@ -153,33 +528,220 @@
     <t>Push Lawn Mower</t>
   </si>
   <si>
+    <t>Sawzall</t>
+  </si>
+  <si>
+    <t>Lowes</t>
+  </si>
+  <si>
+    <t>Skillsaw</t>
+  </si>
+  <si>
+    <t>Snow Blower</t>
+  </si>
+  <si>
+    <t>Snow Shovels</t>
+  </si>
+  <si>
     <t>Speed Bumps</t>
   </si>
   <si>
+    <t>Logan Contractors Supply, Inc</t>
+  </si>
+  <si>
+    <t>Sprayer Backpacks</t>
+  </si>
+  <si>
+    <t>Weed Whips</t>
+  </si>
+  <si>
+    <t>VanWall Equipment</t>
+  </si>
+  <si>
     <t>Exterior</t>
   </si>
   <si>
     <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
   </si>
   <si>
+    <t>5674704</t>
+  </si>
+  <si>
+    <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
+  </si>
+  <si>
+    <t>1 unit=1 box</t>
+  </si>
+  <si>
+    <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311384</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
+    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
+  </si>
+  <si>
+    <t>4x4 slider</t>
+  </si>
+  <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
     <t>5x4 slider</t>
   </si>
   <si>
     <t>81" Foam Replacement Door Seal - BEIGE</t>
   </si>
   <si>
+    <t>4366468</t>
+  </si>
+  <si>
+    <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311371</t>
+  </si>
+  <si>
     <t>Ac trim</t>
   </si>
   <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
+  </si>
+  <si>
+    <t>Address #0</t>
+  </si>
+  <si>
+    <t>Address #1</t>
+  </si>
+  <si>
+    <t>Address #2</t>
+  </si>
+  <si>
+    <t>Address #3</t>
+  </si>
+  <si>
+    <t>Address #4</t>
+  </si>
+  <si>
+    <t>Address #5</t>
+  </si>
+  <si>
+    <t>Address #6</t>
+  </si>
+  <si>
+    <t>Address #7</t>
+  </si>
+  <si>
+    <t>Address #8</t>
+  </si>
+  <si>
+    <t>Address #9</t>
+  </si>
+  <si>
+    <t>Crestline 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Garage Door Rolled Steel Lift Handles</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack
+</t>
+  </si>
+  <si>
+    <t>4311444</t>
+  </si>
+  <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
     <t>Jeld Wen 4' Window Screen</t>
   </si>
   <si>
+    <t>Jeld Wen 5' Window Screen30</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
+    <t>Jelly Jar replacement globes</t>
+  </si>
+  <si>
+    <t>LH Service door</t>
+  </si>
+  <si>
+    <t>4140337</t>
+  </si>
+  <si>
     <t>Master key locking mechanisms (deadbolts)</t>
   </si>
   <si>
+    <t>Security Equipment, Inc.</t>
+  </si>
+  <si>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
     <t>Mastercraft RH Front Door</t>
   </si>
   <si>
+    <t>4140356</t>
+  </si>
+  <si>
+    <t>Plastic Universal outlet cover-clear</t>
+  </si>
+  <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
+  </si>
+  <si>
+    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
+  </si>
+  <si>
     <t>Windsor 4' Window Screen</t>
   </si>
   <si>
@@ -192,76 +754,347 @@
     <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
   </si>
   <si>
+    <t>Pine board</t>
+  </si>
+  <si>
+    <t>1031405</t>
+  </si>
+  <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
     <t>6 panel RH Interior Door</t>
   </si>
   <si>
+    <t>4112596</t>
+  </si>
+  <si>
     <t>Brass Bed &amp; Bath Privacy Door Knob</t>
   </si>
   <si>
+    <t>2218421</t>
+  </si>
+  <si>
     <t>Brass Hall &amp; Closet Passage Door Knob</t>
   </si>
   <si>
+    <t>2218434</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Paper Holder</t>
+  </si>
+  <si>
+    <t>6751654</t>
+  </si>
+  <si>
     <t>Concrete Floor Paint</t>
   </si>
   <si>
+    <t>5512344</t>
+  </si>
+  <si>
+    <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>ct as sngl - comes in 10 pk
+</t>
+  </si>
+  <si>
+    <t>3712324</t>
+  </si>
+  <si>
+    <t>Ivory Duplex Outlet Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712308</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>5412091</t>
+  </si>
+  <si>
     <t>Round White Plastic Toilet Seat</t>
   </si>
   <si>
+    <t>6764300</t>
+  </si>
+  <si>
     <t>Satin Nickel hall &amp; closet door knob</t>
   </si>
   <si>
+    <t>2218720</t>
+  </si>
+  <si>
     <t>Satin nickel lock set for bathroom</t>
   </si>
   <si>
+    <t>2218721</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Inside trim for Ac</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
+    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712337</t>
+  </si>
+  <si>
+    <t>White Duplex Outlet Wall Plate- 10 pk</t>
+  </si>
+  <si>
+    <t>3712311</t>
+  </si>
+  <si>
+    <t>White Globe Replacement Glass with 3-1/4"</t>
+  </si>
+  <si>
+    <t>3451973</t>
+  </si>
+  <si>
+    <t>White Toilet Paper Holder Roller</t>
+  </si>
+  <si>
+    <t>6752200</t>
+  </si>
+  <si>
+    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
+  </si>
+  <si>
+    <t>3715730</t>
+  </si>
+  <si>
     <t>Zzzdo not use</t>
   </si>
   <si>
     <t>Plumbing</t>
   </si>
   <si>
+    <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
+  </si>
+  <si>
+    <t>6799739</t>
+  </si>
+  <si>
+    <t>1-Spray Chrome Fixed Mount Showerhead</t>
+  </si>
+  <si>
+    <t>6781269</t>
+  </si>
+  <si>
+    <t>1/2 coupler for quick connector</t>
+  </si>
+  <si>
+    <t>1/2 coupler</t>
+  </si>
+  <si>
+    <t>680-9810</t>
+  </si>
+  <si>
     <t>1/2 female connector for shower valves</t>
   </si>
   <si>
+    <t>680-9568</t>
+  </si>
+  <si>
     <t>2" Replacement Toilet Flush Valve</t>
   </si>
   <si>
+    <t>6642019</t>
+  </si>
+  <si>
     <t>3" toilet flapper</t>
   </si>
   <si>
+    <t>6641516</t>
+  </si>
+  <si>
+    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
+  </si>
+  <si>
+    <t>6641300</t>
+  </si>
+  <si>
+    <t>Air Ventilator Motor Kit</t>
+  </si>
+  <si>
     <t>angle valve for washer</t>
   </si>
   <si>
+    <t>680-9584</t>
+  </si>
+  <si>
     <t>Bathroom Sink Faucet</t>
   </si>
   <si>
+    <t>6739543</t>
+  </si>
+  <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
+    <t>Chrome Pop-Up Bathroom Sink Drain</t>
+  </si>
+  <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
     <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
   </si>
   <si>
+    <t>6640338</t>
+  </si>
+  <si>
     <t>Korky? Plus Toilet Flapper</t>
   </si>
   <si>
+    <t>6641420</t>
+  </si>
+  <si>
     <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
   </si>
   <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
     <t>Plumb Works? Chrome Diverter Tub Spout</t>
   </si>
   <si>
+    <t>6790336</t>
+  </si>
+  <si>
     <t>Premier Hot &amp; Cold buttons</t>
   </si>
   <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>Replacement Faucet Handle</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
     <t>Replacement Toilet Flange Repair Kit</t>
   </si>
   <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
     <t>Shower/Bath Faucet Set</t>
   </si>
   <si>
+    <t>6736000</t>
+  </si>
+  <si>
     <t>Sink Supply Line</t>
   </si>
   <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
     <t>ZZZOateyCANNOT DELETE - IGNORE</t>
   </si>
   <si>
+    <t>6641269</t>
+  </si>
+  <si>
+    <t>ZZZShower Flange</t>
+  </si>
+  <si>
     <t>ZZZZZZ CANNOT DELETE- IGNORE</t>
+  </si>
+  <si>
+    <t>6641298</t>
   </si>
   <si>
     <t>zzzzzzzdo not use</t>
@@ -277,11 +1110,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt formatCode="yyyy/mm/dd" numFmtId="100"/>
     <numFmt formatCode="yyyy/mm/dd hh:mm:ss" numFmtId="101"/>
+    <numFmt formatCode="#,##0.00;[Red]\-#,##0.00" numFmtId="102"/>
+    <numFmt formatCode="#,##0.00;[Red]\-#,##0.00" numFmtId="103"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -309,6 +1144,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF303030"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF303030"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <b val="1"/>
       <name val="Arial"/>
       <family val="1"/>
       <color rgb="FF303030"/>
@@ -387,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -403,6 +1251,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="102" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="103" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -417,14 +1267,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="20.166666666666668" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="57.599999999999994" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="68.39999999999999" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="49.199999999999996" min="3" max="3" bestFit="1" customWidth="1"/>
+    <col width="21.45" min="4" max="4" bestFit="1" customWidth="1"/>
+    <col width="19.5" min="5" max="5" bestFit="1" customWidth="1"/>
+    <col width="13.65" min="6" max="6" bestFit="1" customWidth="1"/>
+    <col width="27.3" min="7" max="7" bestFit="1" customWidth="1"/>
+    <col width="57.599999999999994" min="8" max="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -432,38 +1288,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -472,488 +1370,4076 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
+      <c r="F16" s="9" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>17</v>
+      <c r="F17" s="9" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>647.35</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>437.63</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>534.99</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>38</v>
+        <v>79</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>40</v>
+        <v>86</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>41</v>
+        <v>89</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>42</v>
+        <v>91</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>44</v>
+        <v>93</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>46</v>
+        <v>98</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>100.33</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>48</v>
+        <v>101</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>49</v>
+        <v>103</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>51</v>
+        <v>107</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>52</v>
+        <v>109</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>54</v>
+        <v>111</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>55</v>
+        <v>113</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>56</v>
+        <v>116</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>57</v>
+        <v>119</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>60</v>
+        <v>124</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>61</v>
+        <v>126</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>62</v>
+        <v>128</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>63</v>
+        <v>130</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>64</v>
+        <v>131</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>66</v>
+        <v>133</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>67</v>
+        <v>135</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>68</v>
+        <v>138</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>69</v>
+        <v>140</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67"/>
+        <v>142</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>352.03</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="8"/>
+      <c r="A68" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="9" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>171.19</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>95.23</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>212.93</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>191.53</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="9" t="n">
+        <v>180.83</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="9" t="n">
+        <v>255.73</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="9" t="n">
+        <v>170.13</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="9" t="n">
+        <v>191.53</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="9" t="n">
+        <v>576.73</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="9" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="9" t="n">
+        <v>267.49</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="9" t="n">
+        <v>95.23</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="9" t="n">
+        <v>255.73</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="9" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="9" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" s="9" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="9" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" s="9" t="n">
+        <v>235.56</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="9" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="9" t="n">
+        <v>266.75</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="9" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" s="9" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="9" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D104" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="9" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D109" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="9" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="9" t="n">
+        <v>272.85</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="9" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" s="9" t="n">
+        <v>373.43</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="9" t="n">
+        <v>373.43</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="9" t="n">
+        <v>272.85</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="9" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D119" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D120" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" s="9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F121" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" s="9" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="9" t="n">
+        <v>127.33</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="9" t="n">
+        <v>127.33</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="9" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127" s="9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F128" s="9" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D131" s="9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="9" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="9" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="9" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="9" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D137" s="9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D138" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="9" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F140" s="9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="9" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D142" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F142" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" s="9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="9" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D145" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="9" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D146" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F146" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147" s="9" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="9" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F149" s="9" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F150" s="9" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="9" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" s="9" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F154" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F155" s="9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" s="9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="9" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D158" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F158" s="9" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="9" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D160" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F160" s="9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F161" s="9" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F162" s="9" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D163" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C164" s="7"/>
+      <c r="D164" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F164" s="9" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F166" s="9" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F167" s="9" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F168" s="9" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="D169" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F170" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" s="9" t="n">
+        <v>105.93</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" s="9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D173" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173" s="9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D174" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" s="9" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C175" s="7"/>
+      <c r="D175" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" s="9" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F176" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="9" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H177" s="7"/>
+    </row>
+    <row r="178"/>
+    <row r="179">
+      <c r="A179" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="10" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="E179" s="8"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="7">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>

--- a/newton.xlsx
+++ b/newton.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/26/2024 05:05 AM</t>
+      <t>12/28/2024 09:48 AM</t>
     </r>
   </si>
   <si>

--- a/newton.xlsx
+++ b/newton.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="349" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="353" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/28/2024 09:48 AM</t>
+      <t>01/07/2025 08:54 PM</t>
     </r>
   </si>
   <si>
@@ -306,190 +306,199 @@
     <t>B10 FAN Light Bulbs - 60 W</t>
   </si>
   <si>
+    <t>ct as sngl; comes in 6 pk</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3538637</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Hallway only IF garage is attached</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>Electronic Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FireX Direct Wire Ionization Smoke Alarm</t>
+  </si>
+  <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>3533415</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
+    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
+    <t>Universal garage door remote</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>3533186</t>
+  </si>
+  <si>
+    <t>Zzzzdonotuse</t>
+  </si>
+  <si>
     <t>ct as sngl; comes in 6 pack</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3538637</t>
-  </si>
-  <si>
-    <t>Brass Knurled Head Screws (3-Pack)</t>
-  </si>
-  <si>
-    <t>comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3456664</t>
-  </si>
-  <si>
-    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354001</t>
-  </si>
-  <si>
-    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354003</t>
-  </si>
-  <si>
-    <t>Cadet Thermostat</t>
-  </si>
-  <si>
-    <t>3354031</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide Detector</t>
-  </si>
-  <si>
-    <t>Hallway only IF garage is attached</t>
-  </si>
-  <si>
-    <t>3E-Electrical Engineering &amp; Equipment Company</t>
-  </si>
-  <si>
-    <t>delta vent fan</t>
-  </si>
-  <si>
-    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
-  </si>
-  <si>
-    <t>3636057</t>
-  </si>
-  <si>
-    <t>Electronic Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FireX Direct Wire Ionization Smoke Alarm</t>
-  </si>
-  <si>
-    <t>3584619</t>
-  </si>
-  <si>
-    <t>G25 VANITY Light Bulbs - 40 Watt</t>
-  </si>
-  <si>
-    <t>3533415</t>
-  </si>
-  <si>
-    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
-  </si>
-  <si>
-    <t>3513170</t>
-  </si>
-  <si>
-    <t>Ivory 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3632909</t>
-  </si>
-  <si>
-    <t>Kitchen Light Fixture-13" Stella White</t>
-  </si>
-  <si>
-    <t>3514207</t>
-  </si>
-  <si>
-    <t>Patriot Lighting? White Teardrop Pull Chain</t>
-  </si>
-  <si>
-    <t>for ceiling fan</t>
-  </si>
-  <si>
-    <t>3458565</t>
-  </si>
-  <si>
-    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6-pk</t>
-  </si>
-  <si>
-    <t>5756026</t>
-  </si>
-  <si>
-    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670100</t>
-  </si>
-  <si>
-    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670102</t>
-  </si>
-  <si>
-    <t>Silver Dryer outlet cover</t>
-  </si>
-  <si>
-    <t>Smart Electrican? Light Control with Photocell</t>
-  </si>
-  <si>
-    <t>3681235</t>
-  </si>
-  <si>
-    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674640</t>
-  </si>
-  <si>
-    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674653</t>
-  </si>
-  <si>
-    <t>Stelpro 24" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro 48" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
-  </si>
-  <si>
-    <t>3636060</t>
-  </si>
-  <si>
-    <t>Torrino Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>3564916</t>
-  </si>
-  <si>
-    <t>Universal garage door remote</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>White 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3638974</t>
-  </si>
-  <si>
-    <t>ZZZCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>3533186</t>
+    <t>Zzzzzzdonotuse</t>
   </si>
   <si>
     <t>Equipment</t>
@@ -746,6 +755,9 @@
   </si>
   <si>
     <t>Windsor 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Zzzzzdonotuse</t>
   </si>
   <si>
     <t>Interior Decor</t>
@@ -1267,7 +1279,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1398,7 +1410,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1442,7 +1454,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
@@ -1490,7 +1502,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>15</v>
@@ -1512,7 +1524,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>18</v>
@@ -1582,7 +1594,7 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>15</v>
@@ -1720,7 +1732,7 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -1746,7 +1758,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="9" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -1798,7 +1810,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="9" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>21</v>
@@ -1850,7 +1862,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>40</v>
@@ -1924,7 +1936,7 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>21</v>
@@ -1974,7 +1986,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="9" t="n">
-        <v>18.0</v>
+        <v>41.0</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>70</v>
@@ -2076,7 +2088,7 @@
         <v>83</v>
       </c>
       <c r="D37" s="9" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>84</v>
@@ -2200,7 +2212,7 @@
         <v>96</v>
       </c>
       <c r="D42" s="9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>21</v>
@@ -2268,7 +2280,7 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>102</v>
@@ -2290,7 +2302,7 @@
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="9" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>18</v>
@@ -2316,7 +2328,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="9" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>84</v>
@@ -2442,7 +2454,7 @@
         <v>117</v>
       </c>
       <c r="D52" s="9" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>84</v>
@@ -2724,7 +2736,7 @@
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>15</v>
@@ -2789,54 +2801,58 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="7"/>
       <c r="D67" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>352.03</v>
-      </c>
-      <c r="G67" s="7"/>
+        <v>2.04</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H67" s="7" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F68" s="9" t="n">
-        <v>73.83</v>
+        <v>23.53</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="9" t="n">
@@ -2846,85 +2862,85 @@
         <v>34</v>
       </c>
       <c r="F69" s="9" t="n">
-        <v>171.19</v>
+        <v>352.03</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F70" s="9" t="n">
-        <v>95.23</v>
+        <v>73.83</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>212.93</v>
+        <v>171.19</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F72" s="9" t="n">
-        <v>191.53</v>
+        <v>95.23</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="9" t="n">
@@ -2934,7 +2950,7 @@
         <v>34</v>
       </c>
       <c r="F73" s="9" t="n">
-        <v>180.83</v>
+        <v>212.93</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
@@ -2943,10 +2959,10 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="9" t="n">
@@ -2956,19 +2972,19 @@
         <v>34</v>
       </c>
       <c r="F74" s="9" t="n">
-        <v>37.45</v>
+        <v>191.53</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="9" t="n">
@@ -2978,7 +2994,7 @@
         <v>34</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>255.73</v>
+        <v>180.83</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
@@ -2987,51 +3003,51 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F76" s="9" t="n">
-        <v>170.13</v>
+        <v>37.45</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F77" s="9" t="n">
-        <v>191.53</v>
+        <v>255.73</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>160</v>
@@ -3044,19 +3060,19 @@
         <v>34</v>
       </c>
       <c r="F78" s="9" t="n">
-        <v>576.73</v>
+        <v>170.13</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="9" t="n">
@@ -3066,38 +3082,38 @@
         <v>34</v>
       </c>
       <c r="F79" s="9" t="n">
-        <v>26.75</v>
+        <v>191.53</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F80" s="9" t="n">
-        <v>267.49</v>
+        <v>576.73</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>164</v>
@@ -3110,7 +3126,7 @@
         <v>34</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>95.23</v>
+        <v>26.75</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
@@ -3119,20 +3135,20 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F82" s="9" t="n">
-        <v>255.73</v>
+        <v>267.49</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
@@ -3141,71 +3157,67 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>169</v>
-      </c>
+        <v>95.23</v>
+      </c>
+      <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>171</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C84" s="7"/>
       <c r="D84" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F84" s="9" t="n">
-        <v>37.17</v>
+        <v>255.73</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>17.64</v>
+        <v>9.62</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>38</v>
@@ -3213,49 +3225,47 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="7"/>
       <c r="D86" s="9" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F86" s="9" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>37.17</v>
+      </c>
+      <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="9" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" s="9" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F87" s="9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>38</v>
@@ -3263,45 +3273,49 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="9" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>235.56</v>
-      </c>
-      <c r="G88" s="7"/>
+        <v>6.94</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="H88" s="7" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F89" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="9" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>38</v>
@@ -3309,42 +3323,42 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F90" s="9" t="n">
-        <v>266.75</v>
+        <v>235.56</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>6.72</v>
+        <v>8.54</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>186</v>
@@ -3355,49 +3369,45 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>266.75</v>
+      </c>
+      <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C93" s="7"/>
       <c r="D93" s="9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>13.89</v>
+        <v>6.72</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>38</v>
@@ -3405,10 +3415,10 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="9" t="n">
@@ -3418,41 +3428,47 @@
         <v>40</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G94" s="7"/>
+        <v>12.82</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="H94" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="7"/>
       <c r="D95" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G95" s="7"/>
+        <v>13.89</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="H95" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="9" t="n">
@@ -3471,14 +3487,14 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>40</v>
@@ -3493,10 +3509,10 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="9" t="n">
@@ -3515,14 +3531,14 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>40</v>
@@ -3537,10 +3553,10 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="9" t="n">
@@ -3559,14 +3575,14 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="9" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>40</v>
@@ -3581,14 +3597,14 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>40</v>
@@ -3603,10 +3619,10 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="9" t="n">
@@ -3625,208 +3641,208 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="7" t="s">
         <v>203</v>
       </c>
+      <c r="C104" s="7"/>
       <c r="D104" s="9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>37.45</v>
+        <v>0.91</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>203</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C105" s="7"/>
       <c r="D105" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>37.45</v>
+        <v>0.91</v>
       </c>
       <c r="G105" s="7"/>
       <c r="H105" s="7" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B106" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="D106" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D106" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C107" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D107" s="9" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>210</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G107" s="7"/>
       <c r="H107" s="7" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B108" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" s="9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D108" s="9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F108" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="H108" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="C109" s="7"/>
       <c r="D109" s="9" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G109" s="7"/>
+        <v>7.64</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="H109" s="7" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D110" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="7"/>
+      <c r="C111" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D111" s="9" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F111" s="9" t="n">
-        <v>5.0</v>
+        <v>37.45</v>
       </c>
       <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
+      <c r="H111" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>272.85</v>
+        <v>7.97</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>217</v>
@@ -3837,45 +3853,43 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F113" s="9" t="n">
-        <v>55.64</v>
+        <v>5.0</v>
       </c>
       <c r="G113" s="7"/>
-      <c r="H113" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="H113" s="7"/>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>373.43</v>
+        <v>272.85</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>38</v>
@@ -3883,66 +3897,66 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>223</v>
-      </c>
+        <v>55.64</v>
+      </c>
+      <c r="G115" s="7"/>
       <c r="H115" s="7" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G116" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="H116" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F117" s="9" t="n">
-        <v>272.85</v>
+        <v>373.43</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>226</v>
@@ -3953,143 +3967,139 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="9" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>7.29</v>
+        <v>5.34</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="C119" s="7"/>
       <c r="D119" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F119" s="9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G119" s="7"/>
+        <v>272.85</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="H119" s="7" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>203</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C120" s="7"/>
       <c r="D120" s="9" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>10.69</v>
+        <v>7.29</v>
       </c>
       <c r="G120" s="7"/>
       <c r="H120" s="7" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D121" s="9" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>20.0</v>
+      </c>
+      <c r="G121" s="7"/>
       <c r="H121" s="7" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C122" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D122" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>235</v>
-      </c>
+        <v>10.69</v>
+      </c>
+      <c r="G122" s="7"/>
       <c r="H122" s="7" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>3.83</v>
+        <v>6.72</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>38</v>
@@ -4097,23 +4107,25 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C124" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="D124" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F124" s="9" t="n">
-        <v>127.33</v>
+        <v>11.76</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>38</v>
@@ -4121,23 +4133,23 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>127.33</v>
+        <v>3.19</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>38</v>
@@ -4145,23 +4157,23 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>11.22</v>
+        <v>3.83</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>38</v>
@@ -4169,23 +4181,23 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>10.15</v>
+        <v>127.33</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>38</v>
@@ -4193,23 +4205,23 @@
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>10.68</v>
+        <v>127.33</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>38</v>
@@ -4217,23 +4229,23 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>46.86</v>
+        <v>11.22</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>38</v>
@@ -4241,25 +4253,23 @@
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C130" s="7"/>
       <c r="D130" s="9" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>0.39</v>
+        <v>10.15</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>38</v>
@@ -4267,25 +4277,23 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C131" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F131" s="9" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="D131" s="9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F131" s="9" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>38</v>
@@ -4293,23 +4301,23 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>25.67</v>
+        <v>46.86</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>38</v>
@@ -4317,23 +4325,25 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C133" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D133" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>12.82</v>
+        <v>0.39</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>38</v>
@@ -4341,23 +4351,25 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C134" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D134" s="9" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>12.29</v>
+        <v>0.38</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>38</v>
@@ -4365,23 +4377,23 @@
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>14.41</v>
+        <v>25.67</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>38</v>
@@ -4389,25 +4401,23 @@
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>264</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C136" s="7"/>
       <c r="D136" s="9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>10.15</v>
+        <v>12.82</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>38</v>
@@ -4415,25 +4425,23 @@
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="9" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>0.39</v>
+        <v>12.29</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>38</v>
@@ -4441,25 +4449,23 @@
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C138" s="7"/>
       <c r="D138" s="9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>0.38</v>
+        <v>14.41</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>38</v>
@@ -4467,23 +4473,25 @@
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C139" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="D139" s="9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>7.46</v>
+        <v>10.15</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>38</v>
@@ -4491,23 +4499,25 @@
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C140" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D140" s="9" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>3.19</v>
+        <v>0.39</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>38</v>
@@ -4515,23 +4525,25 @@
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C141" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D141" s="9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>3.18</v>
+        <v>0.38</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>38</v>
@@ -4539,25 +4551,23 @@
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>232</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C142" s="7"/>
       <c r="D142" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>11.76</v>
+        <v>7.46</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>38</v>
@@ -4565,23 +4575,23 @@
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="9" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>3.95</v>
+        <v>3.19</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>38</v>
@@ -4589,23 +4599,23 @@
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="9" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>8.55</v>
+        <v>3.18</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>38</v>
@@ -4613,75 +4623,73 @@
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D145" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>8.24</v>
+        <v>11.76</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>285</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C146" s="7"/>
       <c r="D146" s="9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>5.99</v>
+        <v>3.95</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>9.62</v>
+        <v>8.55</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>38</v>
@@ -4689,12 +4697,14 @@
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C148" s="7"/>
+        <v>286</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="D148" s="9" t="n">
         <v>2.0</v>
       </c>
@@ -4702,104 +4712,108 @@
         <v>15</v>
       </c>
       <c r="F148" s="9" t="n">
-        <v>12.27</v>
+        <v>8.24</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C149" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="D149" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>4.78</v>
+        <v>5.99</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G150" s="7"/>
+        <v>9.62</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>292</v>
+      </c>
       <c r="H150" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>10.56</v>
+        <v>12.27</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>21.39</v>
+        <v>4.78</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>38</v>
@@ -4807,71 +4821,69 @@
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>299</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G153" s="7"/>
       <c r="H153" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>11.76</v>
+        <v>10.56</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>6.41</v>
+        <v>21.39</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>38</v>
@@ -4879,49 +4891,47 @@
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C156" s="7"/>
       <c r="D156" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>1.31</v>
+        <v>6.41</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>9.61</v>
+        <v>11.76</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>38</v>
@@ -4929,25 +4939,23 @@
     </row>
     <row r="158">
       <c r="A158" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C158" s="7"/>
       <c r="D158" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>4.26</v>
+        <v>6.41</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>38</v>
@@ -4955,49 +4963,49 @@
     </row>
     <row r="159">
       <c r="A159" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C159" s="7"/>
+        <v>308</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="D159" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>37.66</v>
+        <v>1.31</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C160" s="7"/>
       <c r="D160" s="9" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>2.32</v>
+        <v>9.61</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>38</v>
@@ -5005,23 +5013,25 @@
     </row>
     <row r="161">
       <c r="A161" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C161" s="7"/>
+        <v>313</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D161" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>9.62</v>
+        <v>4.26</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>38</v>
@@ -5029,60 +5039,60 @@
     </row>
     <row r="162">
       <c r="A162" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>19.25</v>
+        <v>37.66</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>38</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="D163" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>1.28</v>
+        <v>2.32</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="9" t="n">
@@ -5092,10 +5102,10 @@
         <v>40</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>5.55</v>
+        <v>9.62</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>38</v>
@@ -5103,58 +5113,60 @@
     </row>
     <row r="165">
       <c r="A165" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>2.45</v>
+        <v>19.25</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C166" s="7"/>
+        <v>323</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="D166" s="9" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>7.48</v>
+        <v>1.28</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>38</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="9" t="n">
@@ -5164,10 +5176,10 @@
         <v>40</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>7.48</v>
+        <v>5.55</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>38</v>
@@ -5175,47 +5187,47 @@
     </row>
     <row r="168">
       <c r="A168" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>73.83</v>
+        <v>2.45</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>38</v>
+        <v>330</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>5.34</v>
+        <v>7.48</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>38</v>
@@ -5223,23 +5235,23 @@
     </row>
     <row r="170">
       <c r="A170" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>11.76</v>
+        <v>7.48</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>38</v>
@@ -5247,23 +5259,23 @@
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>105.93</v>
+        <v>73.83</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>38</v>
@@ -5271,23 +5283,23 @@
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>6.4</v>
+        <v>5.34</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>38</v>
@@ -5295,25 +5307,23 @@
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C173" s="7"/>
       <c r="D173" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>2.66</v>
+        <v>11.76</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>38</v>
@@ -5321,25 +5331,23 @@
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C174" s="7"/>
       <c r="D174" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>5.32</v>
+        <v>105.93</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>38</v>
@@ -5347,23 +5355,23 @@
     </row>
     <row r="175">
       <c r="A175" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>2.97</v>
+        <v>6.4</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H175" s="7" t="s">
         <v>38</v>
@@ -5371,64 +5379,140 @@
     </row>
     <row r="176">
       <c r="A176" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C176" s="7"/>
+        <v>345</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D176" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>5.99</v>
+        <v>2.66</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C177" s="7"/>
+      <c r="C177" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D177" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" s="9" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="9" t="n">
         <v>0.0</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E178" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F178" s="9" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F179" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E180" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F177" s="9" t="n">
+      <c r="F180" s="9" t="n">
         <v>8.24</v>
       </c>
-      <c r="G177" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H177" s="7"/>
-    </row>
-    <row r="178"/>
-    <row r="179">
-      <c r="A179" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="10" t="n">
-        <v>661.0</v>
-      </c>
-      <c r="E179" s="8"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
+      <c r="G180" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H180" s="7"/>
+    </row>
+    <row r="181"/>
+    <row r="182">
+      <c r="A182" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="10" t="n">
+        <v>849.0</v>
+      </c>
+      <c r="E182" s="8"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/newton.xlsx
+++ b/newton.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>01/07/2025 08:54 PM</t>
+      <t>03/24/2025 09:09 PM</t>
     </r>
   </si>
   <si>
@@ -99,31 +99,88 @@
     <t>Appliances</t>
   </si>
   <si>
+    <t>6" Drip Pan</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dey Distributing Inc</t>
+  </si>
+  <si>
+    <t>6" GE drip pan</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WB32X5075</t>
+  </si>
+  <si>
+    <t>6" Heating Element</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8" Drip Pan</t>
+  </si>
+  <si>
+    <t>8" GE drip pan</t>
+  </si>
+  <si>
+    <t>WB32X5076</t>
+  </si>
+  <si>
+    <t>8" Heating element</t>
+  </si>
+  <si>
+    <t>Richmond? Electric Water Heater Tune Up Kit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6832301</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
+    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6235506</t>
+  </si>
+  <si>
+    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
+  </si>
+  <si>
+    <t>6933108</t>
+  </si>
+  <si>
     <t>3/4" x 18" Water Heater Supply Line</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>6831555</t>
   </si>
   <si>
-    <t>6" Drip Pan</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Dey Distributing Inc</t>
-  </si>
-  <si>
-    <t>6" GE drip pan</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>WB32X5075</t>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
+    <t>Stove</t>
+  </si>
+  <si>
+    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
+  </si>
+  <si>
+    <t>6835049</t>
   </si>
   <si>
     <t>6" GE element</t>
@@ -135,72 +192,105 @@
     <t>Menards</t>
   </si>
   <si>
-    <t>6" Heating Element</t>
-  </si>
-  <si>
-    <t>8" Drip Pan</t>
-  </si>
-  <si>
-    <t>8" GE drip pan</t>
-  </si>
-  <si>
-    <t>WB32X5076</t>
-  </si>
-  <si>
     <t>8" GE element</t>
   </si>
   <si>
     <t>569-0612</t>
   </si>
   <si>
-    <t>8" Heating element</t>
-  </si>
-  <si>
-    <t>Refrigerator</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Archer Home Center</t>
-  </si>
-  <si>
-    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
-  </si>
-  <si>
-    <t>6835049</t>
-  </si>
-  <si>
-    <t>Menards - Kading Properties LLC</t>
-  </si>
-  <si>
-    <t>Richmond? Electric Water Heater Tune Up Kit</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6832301</t>
-  </si>
-  <si>
-    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
-  </si>
-  <si>
-    <t>6235506</t>
-  </si>
-  <si>
-    <t>Stove</t>
-  </si>
-  <si>
-    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
-  </si>
-  <si>
-    <t>6933108</t>
-  </si>
-  <si>
     <t>Electrical</t>
   </si>
   <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
+    <t>Zzzzzzdonotuse</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>60W Soft White LED Regular Light Bulb</t>
+  </si>
+  <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
+  </si>
+  <si>
+    <t>FireX Direct Wire Ionization Smoke Alarm</t>
+  </si>
+  <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
     <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
   </si>
   <si>
@@ -228,6 +318,63 @@
     <t>3639847</t>
   </si>
   <si>
+    <t>42" White Indoor LED Ceiling Fan</t>
+  </si>
+  <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
+    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
     <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
   </si>
   <si>
@@ -243,34 +390,28 @@
     <t>3633946</t>
   </si>
   <si>
-    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
-  </si>
-  <si>
-    <t>3633759</t>
-  </si>
-  <si>
-    <t>42" White Indoor LED Ceiling Fan</t>
-  </si>
-  <si>
-    <t>3550712</t>
-  </si>
-  <si>
-    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
-  </si>
-  <si>
-    <t>3633733</t>
-  </si>
-  <si>
-    <t>60W Soft White LED Regular Light Bulb</t>
-  </si>
-  <si>
-    <t>ct as sngl; 24-pack</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>3531029</t>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
   </si>
   <si>
     <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
@@ -282,25 +423,73 @@
     <t>3534371</t>
   </si>
   <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>3533415</t>
+  </si>
+  <si>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>3533186</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
+    <t>Zzzzdonotuse</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pack</t>
+  </si>
+  <si>
+    <t>3538637</t>
+  </si>
+  <si>
     <t>A15 LED FAN Bulb - 60 Watt</t>
   </si>
   <si>
-    <t>ct as sngl; comes in 2 pack</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>3530189</t>
   </si>
   <si>
-    <t>Aircycler Smart Exhaust Switch</t>
-  </si>
-  <si>
-    <t>AIR SE1-W</t>
-  </si>
-  <si>
-    <t>Echo Group, Inc.</t>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Universal garage door remote</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Hallway only IF garage is attached</t>
   </si>
   <si>
     <t>B10 FAN Light Bulbs - 60 W</t>
@@ -309,198 +498,9 @@
     <t>ct as sngl; comes in 6 pk</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3538637</t>
-  </si>
-  <si>
-    <t>Brass Knurled Head Screws (3-Pack)</t>
-  </si>
-  <si>
-    <t>comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3456664</t>
-  </si>
-  <si>
-    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354001</t>
-  </si>
-  <si>
-    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354003</t>
-  </si>
-  <si>
-    <t>Cadet Thermostat</t>
-  </si>
-  <si>
-    <t>3354031</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide Detector</t>
-  </si>
-  <si>
-    <t>Hallway only IF garage is attached</t>
-  </si>
-  <si>
-    <t>3E-Electrical Engineering &amp; Equipment Company</t>
-  </si>
-  <si>
-    <t>delta vent fan</t>
-  </si>
-  <si>
-    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
-  </si>
-  <si>
-    <t>3636057</t>
-  </si>
-  <si>
     <t>Electronic Thermostat (for baseboard heater)</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FireX Direct Wire Ionization Smoke Alarm</t>
-  </si>
-  <si>
-    <t>3584619</t>
-  </si>
-  <si>
-    <t>G25 VANITY Light Bulbs - 40 Watt</t>
-  </si>
-  <si>
-    <t>3533415</t>
-  </si>
-  <si>
-    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
-  </si>
-  <si>
-    <t>3513170</t>
-  </si>
-  <si>
-    <t>Ivory 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3632909</t>
-  </si>
-  <si>
-    <t>Kitchen Light Fixture-13" Stella White</t>
-  </si>
-  <si>
-    <t>3514207</t>
-  </si>
-  <si>
-    <t>Patriot Lighting? White Teardrop Pull Chain</t>
-  </si>
-  <si>
-    <t>for ceiling fan</t>
-  </si>
-  <si>
-    <t>3458565</t>
-  </si>
-  <si>
-    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6-pk</t>
-  </si>
-  <si>
-    <t>5756026</t>
-  </si>
-  <si>
-    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670100</t>
-  </si>
-  <si>
-    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670102</t>
-  </si>
-  <si>
-    <t>Silver Dryer outlet cover</t>
-  </si>
-  <si>
-    <t>Smart Electrican? Light Control with Photocell</t>
-  </si>
-  <si>
-    <t>3681235</t>
-  </si>
-  <si>
-    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674640</t>
-  </si>
-  <si>
-    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674653</t>
-  </si>
-  <si>
-    <t>Stelpro 24" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro 48" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
-  </si>
-  <si>
-    <t>3636060</t>
-  </si>
-  <si>
-    <t>Torrino Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>3564916</t>
-  </si>
-  <si>
-    <t>Universal garage door remote</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>White 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3638974</t>
-  </si>
-  <si>
-    <t>ZZZCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>3533186</t>
-  </si>
-  <si>
-    <t>Zzzzdonotuse</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6 pack</t>
-  </si>
-  <si>
-    <t>Zzzzzzdonotuse</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -570,10 +570,10 @@
     <t>Exterior</t>
   </si>
   <si>
-    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
-  </si>
-  <si>
-    <t>5674704</t>
+    <t>Zzzzzdonotuse</t>
+  </si>
+  <si>
+    <t>4366468</t>
   </si>
   <si>
     <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
@@ -582,106 +582,64 @@
     <t>1 unit=1 box</t>
   </si>
   <si>
+    <t>Address #0</t>
+  </si>
+  <si>
+    <t>Address #1</t>
+  </si>
+  <si>
+    <t>Address #2</t>
+  </si>
+  <si>
+    <t>Address #3</t>
+  </si>
+  <si>
+    <t>Address #4</t>
+  </si>
+  <si>
+    <t>Address #5</t>
+  </si>
+  <si>
+    <t>Address #6</t>
+  </si>
+  <si>
+    <t>Address #7</t>
+  </si>
+  <si>
+    <t>Address #8</t>
+  </si>
+  <si>
+    <t>Address #9</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
     <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311384</t>
   </si>
   <si>
-    <t>4" White Louvered Wall Vent Hood Cap</t>
-  </si>
-  <si>
-    <t>6399126</t>
-  </si>
-  <si>
-    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 20-ct</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6485275</t>
-  </si>
-  <si>
-    <t>4x4 slider</t>
-  </si>
-  <si>
-    <t>Gilcrest Jewett Lumber Company</t>
-  </si>
-  <si>
-    <t>5" White Wall Vent Hood Pest Barricade</t>
-  </si>
-  <si>
-    <t>6399429</t>
-  </si>
-  <si>
-    <t>5x4 slider</t>
-  </si>
-  <si>
-    <t>81" Foam Replacement Door Seal - BEIGE</t>
-  </si>
-  <si>
-    <t>4366468</t>
-  </si>
-  <si>
     <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311371</t>
-  </si>
-  <si>
-    <t>Ac trim</t>
-  </si>
-  <si>
-    <t>Outside trim for Ac</t>
-  </si>
-  <si>
-    <t>142-3100</t>
-  </si>
-  <si>
-    <t>Address #0</t>
-  </si>
-  <si>
-    <t>Address #1</t>
-  </si>
-  <si>
-    <t>Address #2</t>
-  </si>
-  <si>
-    <t>Address #3</t>
-  </si>
-  <si>
-    <t>Address #4</t>
-  </si>
-  <si>
-    <t>Address #5</t>
-  </si>
-  <si>
-    <t>Address #6</t>
-  </si>
-  <si>
-    <t>Address #7</t>
-  </si>
-  <si>
-    <t>Address #8</t>
-  </si>
-  <si>
-    <t>Address #9</t>
-  </si>
-  <si>
-    <t>Crestline 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Window screen</t>
-  </si>
-  <si>
-    <t>Bill's Windows &amp; Screens</t>
-  </si>
-  <si>
-    <t>Crestline 5' Window Screen</t>
   </si>
   <si>
     <t>Garage Door Rolled Steel Lift Handles</t>
@@ -694,25 +652,94 @@
     <t>4311444</t>
   </si>
   <si>
-    <t>Garage Door Sliding Interior Side Lock</t>
-  </si>
-  <si>
-    <t>4311428</t>
+    <t>Jelly Jar replacement globes</t>
+  </si>
+  <si>
+    <t>Master key locking mechanisms (deadbolts)</t>
+  </si>
+  <si>
+    <t>Security Equipment, Inc.</t>
+  </si>
+  <si>
+    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
+  </si>
+  <si>
+    <t>5674704</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
+    <t>Plastic Universal outlet cover-clear</t>
+  </si>
+  <si>
+    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
+  </si>
+  <si>
+    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
   </si>
   <si>
     <t>Jeld Wen 4' Window Screen</t>
   </si>
   <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Ac trim</t>
+  </si>
+  <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
+  </si>
+  <si>
     <t>Jeld Wen 5' Window Screen30</t>
   </si>
   <si>
-    <t>Jelly Jar Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>3565001</t>
-  </si>
-  <si>
-    <t>Jelly Jar replacement globes</t>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>4140356</t>
+  </si>
+  <si>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
   </si>
   <si>
     <t>LH Service door</t>
@@ -721,49 +748,22 @@
     <t>4140337</t>
   </si>
   <si>
-    <t>Master key locking mechanisms (deadbolts)</t>
-  </si>
-  <si>
-    <t>Security Equipment, Inc.</t>
-  </si>
-  <si>
-    <t>Mastercraft LH Front Door</t>
-  </si>
-  <si>
-    <t>4140357</t>
-  </si>
-  <si>
-    <t>Mastercraft RH Front Door</t>
-  </si>
-  <si>
-    <t>4140356</t>
-  </si>
-  <si>
-    <t>Plastic Universal outlet cover-clear</t>
-  </si>
-  <si>
-    <t>RH Service door</t>
-  </si>
-  <si>
-    <t>4140336</t>
-  </si>
-  <si>
-    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
-  </si>
-  <si>
-    <t>Windsor 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Windsor 5' Window Screen</t>
-  </si>
-  <si>
-    <t>Zzzzzdonotuse</t>
+    <t>4x4 slider</t>
+  </si>
+  <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5x4 slider</t>
+  </si>
+  <si>
+    <t>81" Foam Replacement Door Seal - BEIGE</t>
   </si>
   <si>
     <t>Interior Decor</t>
   </si>
   <si>
-    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
+    <t>Zzzdo not use</t>
   </si>
   <si>
     <t>Pine board</t>
@@ -772,28 +772,22 @@
     <t>1031405</t>
   </si>
   <si>
-    <t>3-1/4" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316042</t>
-  </si>
-  <si>
-    <t>5" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316054</t>
-  </si>
-  <si>
-    <t>6 panel LH Interior Door</t>
-  </si>
-  <si>
-    <t>4112597</t>
-  </si>
-  <si>
-    <t>6 panel RH Interior Door</t>
-  </si>
-  <si>
-    <t>4112596</t>
+    <t>Chrome Toilet Paper Holder</t>
+  </si>
+  <si>
+    <t>6751654</t>
+  </si>
+  <si>
+    <t>White Toilet Paper Holder Roller</t>
+  </si>
+  <si>
+    <t>6752200</t>
+  </si>
+  <si>
+    <t>Round White Plastic Toilet Seat</t>
+  </si>
+  <si>
+    <t>6764300</t>
   </si>
   <si>
     <t>Brass Bed &amp; Bath Privacy Door Knob</t>
@@ -806,18 +800,6 @@
   </si>
   <si>
     <t>2218434</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Paper Holder</t>
-  </si>
-  <si>
-    <t>6751654</t>
-  </si>
-  <si>
-    <t>Concrete Floor Paint</t>
-  </si>
-  <si>
-    <t>5512344</t>
   </si>
   <si>
     <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
@@ -836,16 +818,73 @@
     <t>3712308</t>
   </si>
   <si>
+    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712337</t>
+  </si>
+  <si>
+    <t>White Duplex Outlet Wall Plate- 10 pk</t>
+  </si>
+  <si>
+    <t>3712311</t>
+  </si>
+  <si>
+    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
+  </si>
+  <si>
+    <t>3715730</t>
+  </si>
+  <si>
+    <t>White Globe Replacement Glass with 3-1/4"</t>
+  </si>
+  <si>
+    <t>3451973</t>
+  </si>
+  <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Inside trim for Ac</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
+    <t>6 panel RH Interior Door</t>
+  </si>
+  <si>
+    <t>4112596</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
     <t>Mirror</t>
   </si>
   <si>
     <t>5412091</t>
   </si>
   <si>
-    <t>Round White Plastic Toilet Seat</t>
-  </si>
-  <si>
-    <t>6764300</t>
+    <t>Concrete Floor Paint</t>
+  </si>
+  <si>
+    <t>5512344</t>
   </si>
   <si>
     <t>Satin Nickel hall &amp; closet door knob</t>
@@ -860,259 +899,220 @@
     <t>2218721</t>
   </si>
   <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Inside trim for Ac</t>
-  </si>
-  <si>
-    <t>103-7010</t>
-  </si>
-  <si>
-    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
-  </si>
-  <si>
-    <t>3712337</t>
-  </si>
-  <si>
-    <t>White Duplex Outlet Wall Plate- 10 pk</t>
-  </si>
-  <si>
-    <t>3712311</t>
-  </si>
-  <si>
-    <t>White Globe Replacement Glass with 3-1/4"</t>
-  </si>
-  <si>
-    <t>3451973</t>
-  </si>
-  <si>
-    <t>White Toilet Paper Holder Roller</t>
-  </si>
-  <si>
-    <t>6752200</t>
-  </si>
-  <si>
-    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
-  </si>
-  <si>
-    <t>3715730</t>
-  </si>
-  <si>
-    <t>Zzzdo not use</t>
+    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
   </si>
   <si>
     <t>Plumbing</t>
   </si>
   <si>
+    <t>Air Ventilator Motor Kit</t>
+  </si>
+  <si>
+    <t>Bathroom Sink Faucet</t>
+  </si>
+  <si>
+    <t>6739543</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
+    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
+  </si>
+  <si>
+    <t>6640338</t>
+  </si>
+  <si>
+    <t>Korky? Plus Toilet Flapper</t>
+  </si>
+  <si>
+    <t>6641420</t>
+  </si>
+  <si>
+    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
+  </si>
+  <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>6641269</t>
+  </si>
+  <si>
+    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
+  </si>
+  <si>
+    <t>6641300</t>
+  </si>
+  <si>
     <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
   </si>
   <si>
     <t>6799739</t>
   </si>
   <si>
+    <t>2" Replacement Toilet Flush Valve</t>
+  </si>
+  <si>
+    <t>6642019</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
+    <t>Plumb Works? Chrome Diverter Tub Spout</t>
+  </si>
+  <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Chrome Pop-Up Bathroom Sink Drain</t>
+  </si>
+  <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
     <t>1-Spray Chrome Fixed Mount Showerhead</t>
   </si>
   <si>
     <t>6781269</t>
   </si>
   <si>
+    <t>ZZZZZZ CANNOT DELETE- IGNORE</t>
+  </si>
+  <si>
+    <t>6641298</t>
+  </si>
+  <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Flange Repair Kit</t>
+  </si>
+  <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>ZZZShower Flange</t>
+  </si>
+  <si>
+    <t>Sink Supply Line</t>
+  </si>
+  <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Shower/Bath Faucet Set</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
+    <t>3" toilet flapper</t>
+  </si>
+  <si>
+    <t>6641516</t>
+  </si>
+  <si>
+    <t>angle valve for washer</t>
+  </si>
+  <si>
+    <t>680-9584</t>
+  </si>
+  <si>
+    <t>Replacement Faucet Handle</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
+    <t>zzzzzzzzdo not use</t>
+  </si>
+  <si>
+    <t>680-9810</t>
+  </si>
+  <si>
+    <t>zzzzzzzdo not use</t>
+  </si>
+  <si>
+    <t>680-9568</t>
+  </si>
+  <si>
+    <t>1/2 female connector for shower valves</t>
+  </si>
+  <si>
     <t>1/2 coupler for quick connector</t>
   </si>
   <si>
     <t>1/2 coupler</t>
-  </si>
-  <si>
-    <t>680-9810</t>
-  </si>
-  <si>
-    <t>1/2 female connector for shower valves</t>
-  </si>
-  <si>
-    <t>680-9568</t>
-  </si>
-  <si>
-    <t>2" Replacement Toilet Flush Valve</t>
-  </si>
-  <si>
-    <t>6642019</t>
-  </si>
-  <si>
-    <t>3" toilet flapper</t>
-  </si>
-  <si>
-    <t>6641516</t>
-  </si>
-  <si>
-    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
-  </si>
-  <si>
-    <t>6641300</t>
-  </si>
-  <si>
-    <t>Air Ventilator Motor Kit</t>
-  </si>
-  <si>
-    <t>angle valve for washer</t>
-  </si>
-  <si>
-    <t>680-9584</t>
-  </si>
-  <si>
-    <t>Bathroom Sink Faucet</t>
-  </si>
-  <si>
-    <t>6739543</t>
-  </si>
-  <si>
-    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
-  </si>
-  <si>
-    <t>6795388</t>
-  </si>
-  <si>
-    <t>Chrome Pop-Up Bathroom Sink Drain</t>
-  </si>
-  <si>
-    <t>6795416</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Tank Lever with Metal Arm</t>
-  </si>
-  <si>
-    <t>6640817</t>
-  </si>
-  <si>
-    <t>DUAL THRD AERATOR 2.2GPM</t>
-  </si>
-  <si>
-    <t>24-89576</t>
-  </si>
-  <si>
-    <t>Home Depot Pro</t>
-  </si>
-  <si>
-    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
-  </si>
-  <si>
-    <t>6640338</t>
-  </si>
-  <si>
-    <t>Korky? Plus Toilet Flapper</t>
-  </si>
-  <si>
-    <t>6641420</t>
-  </si>
-  <si>
-    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
-  </si>
-  <si>
-    <t>35-52592</t>
-  </si>
-  <si>
-    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
-  </si>
-  <si>
-    <t>6791369</t>
-  </si>
-  <si>
-    <t>Plumb Works? 6" Shower Arm with Flange</t>
-  </si>
-  <si>
-    <t>6784373</t>
-  </si>
-  <si>
-    <t>Plumb Works? Chrome Diverter Tub Spout</t>
-  </si>
-  <si>
-    <t>6790336</t>
-  </si>
-  <si>
-    <t>Premier Hot &amp; Cold buttons</t>
-  </si>
-  <si>
-    <t>set of 2</t>
-  </si>
-  <si>
-    <t>13-3863</t>
-  </si>
-  <si>
-    <t>ProLine 3/8" PVC Toilet Supply Line</t>
-  </si>
-  <si>
-    <t>6640137</t>
-  </si>
-  <si>
-    <t>Replacement Faucet Handle</t>
-  </si>
-  <si>
-    <t>263727</t>
-  </si>
-  <si>
-    <t>HD Supply</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Flange Repair Kit</t>
-  </si>
-  <si>
-    <t>6642365</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Tank-to-Bowl Kit</t>
-  </si>
-  <si>
-    <t>6641311</t>
-  </si>
-  <si>
-    <t>Shower/Bath Faucet Set</t>
-  </si>
-  <si>
-    <t>6736000</t>
-  </si>
-  <si>
-    <t>Sink Supply Line</t>
-  </si>
-  <si>
-    <t>6794361</t>
-  </si>
-  <si>
-    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
-  </si>
-  <si>
-    <t>6791164</t>
-  </si>
-  <si>
-    <t>Tuscany Toilet</t>
-  </si>
-  <si>
-    <t>6704575</t>
-  </si>
-  <si>
-    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
-  </si>
-  <si>
-    <t>6791110</t>
-  </si>
-  <si>
-    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>6641269</t>
-  </si>
-  <si>
-    <t>ZZZShower Flange</t>
-  </si>
-  <si>
-    <t>ZZZZZZ CANNOT DELETE- IGNORE</t>
-  </si>
-  <si>
-    <t>6641298</t>
-  </si>
-  <si>
-    <t>zzzzzzzdo not use</t>
-  </si>
-  <si>
-    <t>zzzzzzzzdo not use</t>
   </si>
   <si>
     <t>Total</t>
@@ -1410,18 +1410,18 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>1.06</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -1438,11 +1438,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>4.64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1454,19 +1456,17 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>10.33</v>
+      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1474,23 +1474,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>37.44</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>1.81</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1498,21 +1496,23 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="n">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>6.71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1520,21 +1520,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>1.81</v>
+        <v>11.47</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1542,23 +1542,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>6.71</v>
+        <v>31.0</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="n">
-        <v>5.0</v>
+        <v>156.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>40.11</v>
+        <v>534.99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1590,21 +1590,23 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>17.1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1612,43 +1614,41 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>647.35</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>17.53</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>437.63</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>647.35</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>38</v>
       </c>
@@ -1662,17 +1662,15 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>492.2</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1682,23 +1680,23 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>534.99</v>
+        <v>437.63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1706,21 +1704,23 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>37.44</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1732,19 +1732,19 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>17.1</v>
+        <v>40.11</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1754,23 +1754,19 @@
       <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="9" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>39.99</v>
+      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -1778,25 +1774,21 @@
         <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F25" s="9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G25" s="7" t="s">
+        <v>23.53</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -1806,23 +1798,21 @@
       <c r="B26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>0.6</v>
+        <v>5.87</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1832,23 +1822,21 @@
       <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>0.6</v>
+        <v>5.87</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -1858,23 +1846,21 @@
       <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="9" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H28" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -1882,25 +1868,23 @@
         <v>47</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="9" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1908,23 +1892,23 @@
         <v>47</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>7.47</v>
+        <v>9.58</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1932,23 +1916,25 @@
         <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>4.0</v>
+        <v>51.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>32.07</v>
+        <v>1.11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1956,23 +1942,23 @@
         <v>47</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>5.34</v>
+        <v>23.51</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -1980,25 +1966,23 @@
         <v>47</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="9" t="n">
-        <v>41.0</v>
+        <v>3.0</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -2006,25 +1990,25 @@
         <v>47</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="H34" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -2032,25 +2016,23 @@
         <v>47</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -2058,23 +2040,23 @@
         <v>47</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>91.58</v>
+        <v>5.34</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -2082,25 +2064,25 @@
         <v>47</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D37" s="9" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>2.04</v>
+        <v>0.67</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -2108,25 +2090,25 @@
         <v>47</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D38" s="9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>1.98</v>
+        <v>0.67</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -2134,23 +2116,25 @@
         <v>47</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="D39" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>52.42</v>
+        <v>0.6</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -2158,23 +2142,25 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="D40" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>53.49</v>
+        <v>0.6</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -2182,23 +2168,23 @@
         <v>47</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>34.23</v>
+        <v>32.07</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -2206,23 +2192,25 @@
         <v>47</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D42" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="G42" s="7"/>
+        <v>21.31</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="H42" s="7" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -2230,21 +2218,25 @@
         <v>47</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="D43" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>100.33</v>
-      </c>
-      <c r="G43" s="7"/>
+        <v>1.92</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="H43" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -2252,23 +2244,25 @@
         <v>47</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D44" s="9" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>9.58</v>
+        <v>2.32</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -2276,21 +2270,23 @@
         <v>47</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="9" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G45" s="7"/>
+        <v>7.47</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="H45" s="7" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -2298,23 +2294,23 @@
         <v>47</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="9" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F46" s="9" t="n">
-        <v>23.51</v>
+        <v>7.47</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -2322,25 +2318,21 @@
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C47" s="7"/>
       <c r="D47" s="9" t="n">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>8.99</v>
+      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -2348,23 +2340,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>11.76</v>
+        <v>9.19</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
@@ -2372,23 +2364,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D49" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>5.87</v>
+        <v>13.19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -2396,25 +2390,25 @@
         <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="D50" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>13.24</v>
+        <v>13.19</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -2422,25 +2416,23 @@
         <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>114</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C51" s="7"/>
       <c r="D51" s="9" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>1.92</v>
+        <v>7.09</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -2448,25 +2440,23 @@
         <v>47</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="9" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>2.32</v>
+        <v>7.09</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -2474,23 +2464,21 @@
         <v>47</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>35.0</v>
+      </c>
+      <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -2498,23 +2486,21 @@
         <v>47</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55">
@@ -2522,21 +2508,23 @@
         <v>47</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="G55" s="7"/>
+        <v>10.65</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="H55" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -2544,23 +2532,25 @@
         <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="D56" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>9.19</v>
+        <v>2.08</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -2568,23 +2558,25 @@
         <v>47</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D57" s="9" t="n">
-        <v>7.0</v>
+        <v>26.0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>7.09</v>
+        <v>2.49</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
@@ -2592,23 +2584,25 @@
         <v>47</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="D58" s="9" t="n">
-        <v>7.0</v>
+        <v>48.0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>7.09</v>
+        <v>1.06</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -2616,21 +2610,25 @@
         <v>47</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="D59" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="G59" s="7"/>
+        <v>1.98</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="H59" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -2638,21 +2636,23 @@
         <v>47</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="G60" s="7"/>
+        <v>91.58</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="H60" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
@@ -2664,17 +2664,19 @@
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="G61" s="7"/>
+        <v>34.23</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="H61" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -2682,23 +2684,25 @@
         <v>47</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="D62" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>10.65</v>
+        <v>2.04</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -2706,25 +2710,25 @@
         <v>47</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="D63" s="9" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>21.31</v>
+        <v>4.54</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -2732,21 +2736,21 @@
         <v>47</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>6.96</v>
+        <v>100.33</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65">
@@ -2754,23 +2758,21 @@
         <v>47</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>6.96</v>
+      </c>
+      <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -2778,25 +2780,23 @@
         <v>47</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D66" s="9" t="n">
-        <v>48.0</v>
+        <v>9.0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="F66" s="9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>43.85</v>
+      </c>
+      <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67">
@@ -2810,19 +2810,19 @@
         <v>146</v>
       </c>
       <c r="D67" s="9" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F67" s="9" t="n">
         <v>2.04</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -2834,17 +2834,17 @@
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F68" s="9" t="n">
         <v>23.53</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -2859,7 +2859,7 @@
         <v>1.0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F69" s="9" t="n">
         <v>352.03</v>
@@ -2881,7 +2881,7 @@
         <v>0.0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F70" s="9" t="n">
         <v>73.83</v>
@@ -2903,7 +2903,7 @@
         <v>1.0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F71" s="9" t="n">
         <v>171.19</v>
@@ -2925,7 +2925,7 @@
         <v>1.0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F72" s="9" t="n">
         <v>95.23</v>
@@ -2947,14 +2947,14 @@
         <v>0.0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F73" s="9" t="n">
         <v>212.93</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -2969,7 +2969,7 @@
         <v>0.0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F74" s="9" t="n">
         <v>191.53</v>
@@ -2991,14 +2991,14 @@
         <v>0.0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F75" s="9" t="n">
         <v>180.83</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
@@ -3013,14 +3013,14 @@
         <v>0.0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F76" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
@@ -3035,14 +3035,14 @@
         <v>0.0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="n">
         <v>255.73</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -3057,7 +3057,7 @@
         <v>1.0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F78" s="9" t="n">
         <v>170.13</v>
@@ -3079,7 +3079,7 @@
         <v>1.0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F79" s="9" t="n">
         <v>191.53</v>
@@ -3101,7 +3101,7 @@
         <v>1.0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F80" s="9" t="n">
         <v>576.73</v>
@@ -3123,14 +3123,14 @@
         <v>1.0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="n">
         <v>26.75</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -3145,7 +3145,7 @@
         <v>0.0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F82" s="9" t="n">
         <v>267.49</v>
@@ -3167,14 +3167,14 @@
         <v>1.0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F83" s="9" t="n">
         <v>95.23</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
@@ -3189,7 +3189,7 @@
         <v>1.0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F84" s="9" t="n">
         <v>255.73</v>
@@ -3208,19 +3208,19 @@
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>9.62</v>
+        <v>6.72</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>172</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -3237,7 +3237,7 @@
         <v>2.0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F86" s="9" t="n">
         <v>37.17</v>
@@ -3259,16 +3259,14 @@
         <v>2.0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -3276,23 +3274,21 @@
         <v>170</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="9" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>178</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -3300,25 +3296,21 @@
         <v>170</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>180</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C89" s="7"/>
       <c r="D89" s="9" t="n">
-        <v>40.0</v>
+        <v>2.0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>182</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
@@ -3326,21 +3318,21 @@
         <v>170</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F90" s="9" t="n">
-        <v>235.56</v>
+        <v>0.91</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
@@ -3348,23 +3340,21 @@
         <v>170</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>186</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -3372,21 +3362,21 @@
         <v>170</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="9" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>266.75</v>
+        <v>0.91</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
@@ -3394,23 +3384,21 @@
         <v>170</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -3418,23 +3406,21 @@
         <v>170</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>191</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -3442,25 +3428,21 @@
         <v>170</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C95" s="7"/>
       <c r="D95" s="9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>194</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -3468,21 +3450,21 @@
         <v>170</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F96" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -3490,21 +3472,23 @@
         <v>170</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F97" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G97" s="7"/>
+        <v>8.54</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="H97" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
@@ -3512,21 +3496,23 @@
         <v>170</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="9" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F98" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G98" s="7"/>
+        <v>6.94</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="H98" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -3534,21 +3520,23 @@
         <v>170</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G99" s="7"/>
+        <v>7.64</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="H99" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
@@ -3556,21 +3544,23 @@
         <v>170</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F100" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G100" s="7"/>
+        <v>17.64</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="H100" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -3578,21 +3568,23 @@
         <v>170</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="9" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G101" s="7"/>
+        <v>12.82</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="H101" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -3600,21 +3592,25 @@
         <v>170</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="D102" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G102" s="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H102" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
@@ -3622,43 +3618,41 @@
         <v>170</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F103" s="9" t="n">
-        <v>0.91</v>
+        <v>5.0</v>
       </c>
       <c r="G103" s="7"/>
-      <c r="H103" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="H103" s="7"/>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="9" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>0.91</v>
+        <v>55.64</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
@@ -3666,21 +3660,23 @@
         <v>170</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G105" s="7"/>
+        <v>9.62</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H105" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
@@ -3688,23 +3684,23 @@
         <v>170</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C106" s="7"/>
       <c r="D106" s="9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G106" s="7"/>
+        <v>7.97</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="H106" s="7" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -3712,23 +3708,21 @@
         <v>170</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C107" s="7"/>
       <c r="D107" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>37.45</v>
+        <v>5.34</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
@@ -3736,25 +3730,21 @@
         <v>170</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>210</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C108" s="7"/>
       <c r="D108" s="9" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F108" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>211</v>
-      </c>
+        <v>7.29</v>
+      </c>
+      <c r="G108" s="7"/>
       <c r="H108" s="7" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
@@ -3762,23 +3752,25 @@
         <v>170</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C109" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="D109" s="9" t="n">
-        <v>3.0</v>
+        <v>40.0</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>7.64</v>
+        <v>0.33</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
@@ -3786,16 +3778,16 @@
         <v>170</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D110" s="9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F110" s="9" t="n">
         <v>37.45</v>
@@ -3808,23 +3800,25 @@
         <v>170</v>
       </c>
       <c r="B111" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="9" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D111" s="9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
@@ -3834,21 +3828,21 @@
       <c r="B112" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C112" s="7"/>
+      <c r="C112" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="D112" s="9" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="G112" s="7" t="s">
+        <v>37.45</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="113">
@@ -3858,18 +3852,22 @@
       <c r="B113" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C113" s="7"/>
+      <c r="C113" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="D113" s="9" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F113" s="9" t="n">
-        <v>5.0</v>
+        <v>37.45</v>
       </c>
       <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="H113" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
@@ -3878,21 +3876,21 @@
       <c r="B114" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C114" s="7"/>
+      <c r="C114" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="D114" s="9" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>220</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G114" s="7"/>
       <c r="H114" s="7" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115">
@@ -3900,21 +3898,23 @@
         <v>170</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="D115" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>55.64</v>
+        <v>20.0</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116">
@@ -3922,23 +3922,23 @@
         <v>170</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C116" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="D116" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>224</v>
-      </c>
+        <v>10.69</v>
+      </c>
+      <c r="G116" s="7"/>
       <c r="H116" s="7" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117">
@@ -3946,23 +3946,23 @@
         <v>170</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F117" s="9" t="n">
         <v>373.43</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
@@ -3970,21 +3970,23 @@
         <v>170</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G118" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="H118" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
@@ -3992,23 +3994,23 @@
         <v>170</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F119" s="9" t="n">
         <v>272.85</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
@@ -4016,21 +4018,23 @@
         <v>170</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="9" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="G120" s="7"/>
+        <v>272.85</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="H120" s="7" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
@@ -4038,23 +4042,21 @@
         <v>170</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C121" s="7"/>
       <c r="D121" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>20.0</v>
+        <v>235.56</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="7" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122">
@@ -4064,21 +4066,19 @@
       <c r="B122" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>206</v>
-      </c>
+      <c r="C122" s="7"/>
       <c r="D122" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>10.69</v>
+        <v>266.75</v>
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="7" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F123" s="9" t="n">
         <v>6.72</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
@@ -4116,10 +4116,10 @@
         <v>236</v>
       </c>
       <c r="D124" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F124" s="9" t="n">
         <v>11.76</v>
@@ -4128,7 +4128,7 @@
         <v>237</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
@@ -4140,19 +4140,19 @@
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="9" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>3.19</v>
+        <v>10.68</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>239</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
@@ -4164,19 +4164,19 @@
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>3.83</v>
+        <v>3.19</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>241</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
@@ -4188,19 +4188,19 @@
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="9" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>127.33</v>
+        <v>12.82</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>243</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
@@ -4215,16 +4215,16 @@
         <v>1.0</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>127.33</v>
+        <v>11.22</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>245</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
@@ -4236,19 +4236,19 @@
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="9" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>11.22</v>
+        <v>10.15</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>247</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
@@ -4258,21 +4258,23 @@
       <c r="B130" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C130" s="7"/>
+      <c r="C130" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="D130" s="9" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>10.15</v>
+        <v>0.39</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
@@ -4280,23 +4282,25 @@
         <v>234</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C131" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="D131" s="9" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>10.68</v>
+        <v>0.38</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
@@ -4304,23 +4308,25 @@
         <v>234</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C132" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="D132" s="9" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>46.86</v>
+        <v>0.39</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
@@ -4328,25 +4334,25 @@
         <v>234</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D133" s="9" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>256</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
@@ -4356,23 +4362,21 @@
       <c r="B134" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="C134" s="7"/>
       <c r="D134" s="9" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>0.38</v>
+        <v>3.18</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>258</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
@@ -4384,19 +4388,19 @@
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>25.67</v>
+        <v>7.46</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
@@ -4408,19 +4412,19 @@
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>12.82</v>
+        <v>3.19</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
@@ -4432,19 +4436,19 @@
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>12.29</v>
+        <v>3.83</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>264</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
@@ -4454,21 +4458,23 @@
       <c r="B138" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C138" s="7"/>
+      <c r="C138" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="D138" s="9" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>14.41</v>
+        <v>10.15</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
@@ -4476,25 +4482,23 @@
         <v>234</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C139" s="7" t="s">
         <v>268</v>
       </c>
+      <c r="C139" s="7"/>
       <c r="D139" s="9" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>10.15</v>
+        <v>127.33</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>269</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
@@ -4504,23 +4508,21 @@
       <c r="B140" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="C140" s="7"/>
       <c r="D140" s="9" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>0.39</v>
+        <v>127.33</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>271</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
@@ -4530,23 +4532,21 @@
       <c r="B141" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="C141" s="7"/>
       <c r="D141" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>0.38</v>
+        <v>25.67</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>273</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
@@ -4558,19 +4558,19 @@
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>7.46</v>
+        <v>46.86</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>275</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
@@ -4585,16 +4585,16 @@
         <v>6.0</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>3.19</v>
+        <v>12.29</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>277</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
@@ -4606,19 +4606,19 @@
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>3.18</v>
+        <v>14.41</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>279</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
@@ -4632,10 +4632,10 @@
         <v>236</v>
       </c>
       <c r="D145" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F145" s="9" t="n">
         <v>11.76</v>
@@ -4644,7 +4644,7 @@
         <v>237</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
@@ -4659,16 +4659,14 @@
         <v>3.0</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>283</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G146" s="7"/>
       <c r="H146" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
@@ -4676,23 +4674,23 @@
         <v>281</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>8.55</v>
+        <v>21.39</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
@@ -4700,25 +4698,25 @@
         <v>281</v>
       </c>
       <c r="B148" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D148" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F148" s="9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="H148" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="D148" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F148" s="9" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="149">
@@ -4726,25 +4724,23 @@
         <v>281</v>
       </c>
       <c r="B149" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" s="9" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="G149" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D149" s="9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F149" s="9" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="H149" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
@@ -4752,23 +4748,25 @@
         <v>281</v>
       </c>
       <c r="B150" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D150" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F150" s="9" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C150" s="7"/>
-      <c r="D150" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H150" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
@@ -4776,23 +4774,23 @@
         <v>281</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="9" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>12.27</v>
+        <v>37.66</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
     </row>
     <row r="152">
@@ -4800,23 +4798,25 @@
         <v>281</v>
       </c>
       <c r="B152" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D152" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" s="9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F152" s="9" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="H152" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153">
@@ -4824,21 +4824,23 @@
         <v>281</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G153" s="7"/>
+        <v>4.78</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="H153" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
@@ -4850,19 +4852,19 @@
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>10.56</v>
+        <v>3.95</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>299</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155">
@@ -4877,16 +4879,16 @@
         <v>2.0</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>21.39</v>
+        <v>9.62</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>301</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
@@ -4898,19 +4900,19 @@
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>6.41</v>
+        <v>9.62</v>
       </c>
       <c r="G156" s="7" t="s">
         <v>303</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
@@ -4922,19 +4924,19 @@
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="9" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>11.76</v>
+        <v>19.25</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>305</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
@@ -4946,19 +4948,19 @@
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>6.41</v>
+        <v>11.76</v>
       </c>
       <c r="G158" s="7" t="s">
         <v>307</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
@@ -4968,23 +4970,21 @@
       <c r="B159" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="C159" s="7"/>
       <c r="D159" s="9" t="n">
         <v>5.0</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>1.31</v>
+        <v>6.41</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>309</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>310</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160">
@@ -4992,23 +4992,23 @@
         <v>281</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>9.61</v>
+        <v>7.48</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161">
@@ -5016,25 +5016,23 @@
         <v>281</v>
       </c>
       <c r="B161" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F161" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D161" s="9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F161" s="9" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="H161" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162">
@@ -5042,23 +5040,23 @@
         <v>281</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="9" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>37.66</v>
+        <v>8.55</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>310</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
@@ -5066,25 +5064,23 @@
         <v>281</v>
       </c>
       <c r="B163" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F163" s="9" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D163" s="9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F163" s="9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="H163" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
@@ -5092,23 +5088,23 @@
         <v>281</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>9.62</v>
+        <v>6.41</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165">
@@ -5116,23 +5112,23 @@
         <v>281</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>19.25</v>
+        <v>7.48</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
@@ -5140,25 +5136,25 @@
         <v>281</v>
       </c>
       <c r="B166" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C166" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="D166" s="9" t="n">
         <v>12.0</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F166" s="9" t="n">
         <v>1.28</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="167">
@@ -5166,23 +5162,23 @@
         <v>281</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F167" s="9" t="n">
         <v>5.55</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
@@ -5190,23 +5186,25 @@
         <v>281</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C168" s="7"/>
+        <v>327</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="D168" s="9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>2.45</v>
+        <v>5.32</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>330</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169">
@@ -5214,23 +5212,23 @@
         <v>281</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>7.48</v>
+        <v>5.34</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
@@ -5238,23 +5236,23 @@
         <v>281</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="9" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>7.48</v>
+        <v>6.4</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171">
@@ -5262,23 +5260,25 @@
         <v>281</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C171" s="7"/>
+        <v>332</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="D171" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>73.83</v>
+        <v>2.32</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
@@ -5286,23 +5286,23 @@
         <v>281</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="9" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>5.34</v>
+        <v>105.93</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173">
@@ -5310,23 +5310,23 @@
         <v>281</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>11.76</v>
+        <v>73.83</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174">
@@ -5334,23 +5334,23 @@
         <v>281</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>105.93</v>
+        <v>12.27</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175">
@@ -5358,23 +5358,23 @@
         <v>281</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>6.4</v>
+        <v>10.56</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176">
@@ -5382,25 +5382,23 @@
         <v>281</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C176" s="7"/>
       <c r="D176" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>2.66</v>
+        <v>2.45</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>38</v>
+        <v>344</v>
       </c>
     </row>
     <row r="177">
@@ -5408,49 +5406,45 @@
         <v>281</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C177" s="7"/>
       <c r="D177" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>5.32</v>
+        <v>8.24</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="H177" s="7"/>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
         <v>281</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>2.97</v>
+        <v>5.99</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179">
@@ -5458,23 +5452,25 @@
         <v>281</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C179" s="7"/>
+        <v>349</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="D179" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="F179" s="9" t="n">
         <v>5.99</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180">
@@ -5482,22 +5478,26 @@
         <v>281</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="7"/>
       <c r="D180" s="9" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F180" s="9" t="n">
         <v>8.24</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H180" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="181"/>
     <row r="182">
@@ -5507,7 +5507,7 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="10" t="n">
-        <v>849.0</v>
+        <v>1131.0</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="10"/>

--- a/newton.xlsx
+++ b/newton.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>03/24/2025 09:09 PM</t>
+      <t>01/07/2025 08:54 PM</t>
     </r>
   </si>
   <si>
@@ -99,6 +99,15 @@
     <t>Appliances</t>
   </si>
   <si>
+    <t>3/4" x 18" Water Heater Supply Line</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6831555</t>
+  </si>
+  <si>
     <t>6" Drip Pan</t>
   </si>
   <si>
@@ -117,12 +126,18 @@
     <t>WB32X5075</t>
   </si>
   <si>
+    <t>6" GE element</t>
+  </si>
+  <si>
+    <t>469-0610</t>
+  </si>
+  <si>
+    <t>Menards</t>
+  </si>
+  <si>
     <t>6" Heating Element</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>8" Drip Pan</t>
   </si>
   <si>
@@ -132,9 +147,33 @@
     <t>WB32X5076</t>
   </si>
   <si>
+    <t>8" GE element</t>
+  </si>
+  <si>
+    <t>569-0612</t>
+  </si>
+  <si>
     <t>8" Heating element</t>
   </si>
   <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
+    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
+  </si>
+  <si>
+    <t>6835049</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
     <t>Richmond? Electric Water Heater Tune Up Kit</t>
   </si>
   <si>
@@ -144,363 +183,324 @@
     <t>6832301</t>
   </si>
   <si>
-    <t>Menards - Kading Properties LLC</t>
-  </si>
-  <si>
     <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>6235506</t>
   </si>
   <si>
+    <t>Stove</t>
+  </si>
+  <si>
     <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
   </si>
   <si>
     <t>6933108</t>
   </si>
   <si>
-    <t>3/4" x 18" Water Heater Supply Line</t>
-  </si>
-  <si>
-    <t>6831555</t>
-  </si>
-  <si>
-    <t>Refrigerator</t>
-  </si>
-  <si>
-    <t>Archer Home Center</t>
-  </si>
-  <si>
-    <t>Stove</t>
-  </si>
-  <si>
-    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
-  </si>
-  <si>
-    <t>6835049</t>
-  </si>
-  <si>
-    <t>6" GE element</t>
-  </si>
-  <si>
-    <t>469-0610</t>
-  </si>
-  <si>
-    <t>Menards</t>
-  </si>
-  <si>
-    <t>8" GE element</t>
-  </si>
-  <si>
-    <t>569-0612</t>
-  </si>
-  <si>
     <t>Electrical</t>
   </si>
   <si>
+    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 10 pk</t>
+  </si>
+  <si>
+    <t>3639850</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>3639863</t>
+  </si>
+  <si>
+    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639834</t>
+  </si>
+  <si>
+    <t>15-Amp White Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639847</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3633944</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
+  </si>
+  <si>
+    <t>3633946</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
+    <t>42" White Indoor LED Ceiling Fan</t>
+  </si>
+  <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
+    <t>60W Soft White LED Regular Light Bulb</t>
+  </si>
+  <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
+  </si>
+  <si>
+    <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pk</t>
+  </si>
+  <si>
+    <t>3534371</t>
+  </si>
+  <si>
+    <t>A15 LED FAN Bulb - 60 Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3530189</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
+    <t>B10 FAN Light Bulbs - 60 W</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pk</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3538637</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Hallway only IF garage is attached</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>Electronic Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FireX Direct Wire Ionization Smoke Alarm</t>
+  </si>
+  <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>3533415</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
+    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
     <t>Stelpro Thermostat (for baseboard heater)</t>
   </si>
   <si>
-    <t>Echo Group, Inc.</t>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
+    <t>Universal garage door remote</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>3533186</t>
+  </si>
+  <si>
+    <t>Zzzzdonotuse</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pack</t>
   </si>
   <si>
     <t>Zzzzzzdonotuse</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3E-Electrical Engineering &amp; Equipment Company</t>
-  </si>
-  <si>
-    <t>White 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3638974</t>
-  </si>
-  <si>
-    <t>Ivory 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3632909</t>
-  </si>
-  <si>
-    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354001</t>
-  </si>
-  <si>
-    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354003</t>
-  </si>
-  <si>
-    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
-  </si>
-  <si>
-    <t>3636057</t>
-  </si>
-  <si>
-    <t>60W Soft White LED Regular Light Bulb</t>
-  </si>
-  <si>
-    <t>ct as sngl; 24-pack</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>3531029</t>
-  </si>
-  <si>
-    <t>FireX Direct Wire Ionization Smoke Alarm</t>
-  </si>
-  <si>
-    <t>3584619</t>
-  </si>
-  <si>
-    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
-  </si>
-  <si>
-    <t>3513170</t>
-  </si>
-  <si>
-    <t>Kitchen Light Fixture-13" Stella White</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 2 pack</t>
-  </si>
-  <si>
-    <t>3514207</t>
-  </si>
-  <si>
-    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
-  </si>
-  <si>
-    <t>3633759</t>
-  </si>
-  <si>
-    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
-  </si>
-  <si>
-    <t>3633733</t>
-  </si>
-  <si>
-    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 10 pk</t>
-  </si>
-  <si>
-    <t>3639850</t>
-  </si>
-  <si>
-    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
-  </si>
-  <si>
-    <t>3639863</t>
-  </si>
-  <si>
-    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
-  </si>
-  <si>
-    <t>3639834</t>
-  </si>
-  <si>
-    <t>15-Amp White Duplex Outlet - 10 pk</t>
-  </si>
-  <si>
-    <t>3639847</t>
-  </si>
-  <si>
-    <t>42" White Indoor LED Ceiling Fan</t>
-  </si>
-  <si>
-    <t>3550712</t>
-  </si>
-  <si>
-    <t>Torrino Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>3564916</t>
-  </si>
-  <si>
-    <t>Patriot Lighting? White Teardrop Pull Chain</t>
-  </si>
-  <si>
-    <t>for ceiling fan</t>
-  </si>
-  <si>
-    <t>3458565</t>
-  </si>
-  <si>
-    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6-pk</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5756026</t>
-  </si>
-  <si>
-    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670100</t>
-  </si>
-  <si>
-    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670102</t>
-  </si>
-  <si>
-    <t>Silver Dryer outlet cover</t>
-  </si>
-  <si>
-    <t>Smart Electrican? Light Control with Photocell</t>
-  </si>
-  <si>
-    <t>3681235</t>
-  </si>
-  <si>
-    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3633944</t>
-  </si>
-  <si>
-    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
-  </si>
-  <si>
-    <t>3633946</t>
-  </si>
-  <si>
-    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674640</t>
-  </si>
-  <si>
-    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674653</t>
-  </si>
-  <si>
-    <t>Stelpro 24" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro 48" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
-  </si>
-  <si>
-    <t>3636060</t>
-  </si>
-  <si>
-    <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 2 pk</t>
-  </si>
-  <si>
-    <t>3534371</t>
-  </si>
-  <si>
-    <t>G25 VANITY Light Bulbs - 40 Watt</t>
-  </si>
-  <si>
-    <t>3533415</t>
-  </si>
-  <si>
-    <t>ZZZCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>3533186</t>
-  </si>
-  <si>
-    <t>Brass Knurled Head Screws (3-Pack)</t>
-  </si>
-  <si>
-    <t>comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3456664</t>
-  </si>
-  <si>
-    <t>Aircycler Smart Exhaust Switch</t>
-  </si>
-  <si>
-    <t>AIR SE1-W</t>
-  </si>
-  <si>
-    <t>Cadet Thermostat</t>
-  </si>
-  <si>
-    <t>3354031</t>
-  </si>
-  <si>
-    <t>Zzzzdonotuse</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6 pack</t>
-  </si>
-  <si>
-    <t>3538637</t>
-  </si>
-  <si>
-    <t>A15 LED FAN Bulb - 60 Watt</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3530189</t>
-  </si>
-  <si>
-    <t>delta vent fan</t>
-  </si>
-  <si>
-    <t>Universal garage door remote</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide Detector</t>
-  </si>
-  <si>
-    <t>Hallway only IF garage is attached</t>
-  </si>
-  <si>
-    <t>B10 FAN Light Bulbs - 60 W</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6 pk</t>
-  </si>
-  <si>
-    <t>Electronic Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -570,16 +570,76 @@
     <t>Exterior</t>
   </si>
   <si>
-    <t>Zzzzzdonotuse</t>
+    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
+  </si>
+  <si>
+    <t>5674704</t>
+  </si>
+  <si>
+    <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
+  </si>
+  <si>
+    <t>1 unit=1 box</t>
+  </si>
+  <si>
+    <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311384</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
+    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
+  </si>
+  <si>
+    <t>4x4 slider</t>
+  </si>
+  <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
+    <t>5x4 slider</t>
+  </si>
+  <si>
+    <t>81" Foam Replacement Door Seal - BEIGE</t>
   </si>
   <si>
     <t>4366468</t>
   </si>
   <si>
-    <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
-  </si>
-  <si>
-    <t>1 unit=1 box</t>
+    <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311371</t>
+  </si>
+  <si>
+    <t>Ac trim</t>
+  </si>
+  <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
   </si>
   <si>
     <t>Address #0</t>
@@ -612,34 +672,16 @@
     <t>Address #9</t>
   </si>
   <si>
-    <t>5" White Wall Vent Hood Pest Barricade</t>
-  </si>
-  <si>
-    <t>6399429</t>
-  </si>
-  <si>
-    <t>4" White Louvered Wall Vent Hood Cap</t>
-  </si>
-  <si>
-    <t>6399126</t>
-  </si>
-  <si>
-    <t>Garage Door Sliding Interior Side Lock</t>
-  </si>
-  <si>
-    <t>4311428</t>
-  </si>
-  <si>
-    <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
-  </si>
-  <si>
-    <t>4311384</t>
-  </si>
-  <si>
-    <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
-  </si>
-  <si>
-    <t>4311371</t>
+    <t>Crestline 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
   </si>
   <si>
     <t>Garage Door Rolled Steel Lift Handles</t>
@@ -652,118 +694,76 @@
     <t>4311444</t>
   </si>
   <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
+    <t>Jeld Wen 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Jeld Wen 5' Window Screen30</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
     <t>Jelly Jar replacement globes</t>
   </si>
   <si>
+    <t>LH Service door</t>
+  </si>
+  <si>
+    <t>4140337</t>
+  </si>
+  <si>
     <t>Master key locking mechanisms (deadbolts)</t>
   </si>
   <si>
     <t>Security Equipment, Inc.</t>
   </si>
   <si>
-    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
-  </si>
-  <si>
-    <t>5674704</t>
-  </si>
-  <si>
-    <t>Jelly Jar Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>3565001</t>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
+    <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>4140356</t>
   </si>
   <si>
     <t>Plastic Universal outlet cover-clear</t>
   </si>
   <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
+  </si>
+  <si>
     <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
   </si>
   <si>
-    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 20-ct</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6485275</t>
-  </si>
-  <si>
-    <t>Jeld Wen 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Window screen</t>
-  </si>
-  <si>
-    <t>Ac trim</t>
-  </si>
-  <si>
-    <t>Outside trim for Ac</t>
-  </si>
-  <si>
-    <t>142-3100</t>
-  </si>
-  <si>
-    <t>Jeld Wen 5' Window Screen30</t>
-  </si>
-  <si>
-    <t>Bill's Windows &amp; Screens</t>
-  </si>
-  <si>
-    <t>Crestline 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Crestline 5' Window Screen</t>
-  </si>
-  <si>
     <t>Windsor 4' Window Screen</t>
   </si>
   <si>
     <t>Windsor 5' Window Screen</t>
   </si>
   <si>
-    <t>Mastercraft RH Front Door</t>
-  </si>
-  <si>
-    <t>4140356</t>
-  </si>
-  <si>
-    <t>Mastercraft LH Front Door</t>
-  </si>
-  <si>
-    <t>4140357</t>
-  </si>
-  <si>
-    <t>RH Service door</t>
-  </si>
-  <si>
-    <t>4140336</t>
-  </si>
-  <si>
-    <t>LH Service door</t>
-  </si>
-  <si>
-    <t>4140337</t>
-  </si>
-  <si>
-    <t>4x4 slider</t>
-  </si>
-  <si>
-    <t>Gilcrest Jewett Lumber Company</t>
-  </si>
-  <si>
-    <t>5x4 slider</t>
-  </si>
-  <si>
-    <t>81" Foam Replacement Door Seal - BEIGE</t>
+    <t>Zzzzzdonotuse</t>
   </si>
   <si>
     <t>Interior Decor</t>
   </si>
   <si>
-    <t>Zzzdo not use</t>
+    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
   </si>
   <si>
     <t>Pine board</t>
@@ -772,34 +772,52 @@
     <t>1031405</t>
   </si>
   <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
+    <t>6 panel RH Interior Door</t>
+  </si>
+  <si>
+    <t>4112596</t>
+  </si>
+  <si>
+    <t>Brass Bed &amp; Bath Privacy Door Knob</t>
+  </si>
+  <si>
+    <t>2218421</t>
+  </si>
+  <si>
+    <t>Brass Hall &amp; Closet Passage Door Knob</t>
+  </si>
+  <si>
+    <t>2218434</t>
+  </si>
+  <si>
     <t>Chrome Toilet Paper Holder</t>
   </si>
   <si>
     <t>6751654</t>
   </si>
   <si>
-    <t>White Toilet Paper Holder Roller</t>
-  </si>
-  <si>
-    <t>6752200</t>
-  </si>
-  <si>
-    <t>Round White Plastic Toilet Seat</t>
-  </si>
-  <si>
-    <t>6764300</t>
-  </si>
-  <si>
-    <t>Brass Bed &amp; Bath Privacy Door Knob</t>
-  </si>
-  <si>
-    <t>2218421</t>
-  </si>
-  <si>
-    <t>Brass Hall &amp; Closet Passage Door Knob</t>
-  </si>
-  <si>
-    <t>2218434</t>
+    <t>Concrete Floor Paint</t>
+  </si>
+  <si>
+    <t>5512344</t>
   </si>
   <si>
     <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
@@ -818,6 +836,39 @@
     <t>3712308</t>
   </si>
   <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>5412091</t>
+  </si>
+  <si>
+    <t>Round White Plastic Toilet Seat</t>
+  </si>
+  <si>
+    <t>6764300</t>
+  </si>
+  <si>
+    <t>Satin Nickel hall &amp; closet door knob</t>
+  </si>
+  <si>
+    <t>2218720</t>
+  </si>
+  <si>
+    <t>Satin nickel lock set for bathroom</t>
+  </si>
+  <si>
+    <t>2218721</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Inside trim for Ac</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
     <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
   </si>
   <si>
@@ -830,90 +881,108 @@
     <t>3712311</t>
   </si>
   <si>
+    <t>White Globe Replacement Glass with 3-1/4"</t>
+  </si>
+  <si>
+    <t>3451973</t>
+  </si>
+  <si>
+    <t>White Toilet Paper Holder Roller</t>
+  </si>
+  <si>
+    <t>6752200</t>
+  </si>
+  <si>
     <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
   </si>
   <si>
     <t>3715730</t>
   </si>
   <si>
-    <t>White Globe Replacement Glass with 3-1/4"</t>
-  </si>
-  <si>
-    <t>3451973</t>
-  </si>
-  <si>
-    <t>3-1/4" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316042</t>
-  </si>
-  <si>
-    <t>5" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316054</t>
-  </si>
-  <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Inside trim for Ac</t>
-  </si>
-  <si>
-    <t>103-7010</t>
-  </si>
-  <si>
-    <t>6 panel RH Interior Door</t>
-  </si>
-  <si>
-    <t>4112596</t>
-  </si>
-  <si>
-    <t>6 panel LH Interior Door</t>
-  </si>
-  <si>
-    <t>4112597</t>
-  </si>
-  <si>
-    <t>Mirror</t>
-  </si>
-  <si>
-    <t>5412091</t>
-  </si>
-  <si>
-    <t>Concrete Floor Paint</t>
-  </si>
-  <si>
-    <t>5512344</t>
-  </si>
-  <si>
-    <t>Satin Nickel hall &amp; closet door knob</t>
-  </si>
-  <si>
-    <t>2218720</t>
-  </si>
-  <si>
-    <t>Satin nickel lock set for bathroom</t>
-  </si>
-  <si>
-    <t>2218721</t>
-  </si>
-  <si>
-    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
+    <t>Zzzdo not use</t>
   </si>
   <si>
     <t>Plumbing</t>
   </si>
   <si>
+    <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
+  </si>
+  <si>
+    <t>6799739</t>
+  </si>
+  <si>
+    <t>1-Spray Chrome Fixed Mount Showerhead</t>
+  </si>
+  <si>
+    <t>6781269</t>
+  </si>
+  <si>
+    <t>1/2 coupler for quick connector</t>
+  </si>
+  <si>
+    <t>1/2 coupler</t>
+  </si>
+  <si>
+    <t>680-9810</t>
+  </si>
+  <si>
+    <t>1/2 female connector for shower valves</t>
+  </si>
+  <si>
+    <t>680-9568</t>
+  </si>
+  <si>
+    <t>2" Replacement Toilet Flush Valve</t>
+  </si>
+  <si>
+    <t>6642019</t>
+  </si>
+  <si>
+    <t>3" toilet flapper</t>
+  </si>
+  <si>
+    <t>6641516</t>
+  </si>
+  <si>
+    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
+  </si>
+  <si>
+    <t>6641300</t>
+  </si>
+  <si>
     <t>Air Ventilator Motor Kit</t>
   </si>
   <si>
+    <t>angle valve for washer</t>
+  </si>
+  <si>
+    <t>680-9584</t>
+  </si>
+  <si>
     <t>Bathroom Sink Faucet</t>
   </si>
   <si>
     <t>6739543</t>
   </si>
   <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
+    <t>Chrome Pop-Up Bathroom Sink Drain</t>
+  </si>
+  <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
     <t>DUAL THRD AERATOR 2.2GPM</t>
   </si>
   <si>
@@ -941,70 +1010,97 @@
     <t>35-52592</t>
   </si>
   <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
+    <t>Plumb Works? Chrome Diverter Tub Spout</t>
+  </si>
+  <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>Replacement Faucet Handle</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Flange Repair Kit</t>
+  </si>
+  <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Shower/Bath Faucet Set</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
+    <t>Sink Supply Line</t>
+  </si>
+  <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
     <t>ZZZOateyCANNOT DELETE - IGNORE</t>
   </si>
   <si>
     <t>6641269</t>
   </si>
   <si>
-    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
-  </si>
-  <si>
-    <t>6641300</t>
-  </si>
-  <si>
-    <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
-  </si>
-  <si>
-    <t>6799739</t>
-  </si>
-  <si>
-    <t>2" Replacement Toilet Flush Valve</t>
-  </si>
-  <si>
-    <t>6642019</t>
-  </si>
-  <si>
-    <t>Plumb Works? 6" Shower Arm with Flange</t>
-  </si>
-  <si>
-    <t>6784373</t>
-  </si>
-  <si>
-    <t>Plumb Works? Chrome Diverter Tub Spout</t>
-  </si>
-  <si>
-    <t>6790336</t>
-  </si>
-  <si>
-    <t>Chrome Pop-Up Bathroom Sink Drain</t>
-  </si>
-  <si>
-    <t>6795416</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Tank Lever with Metal Arm</t>
-  </si>
-  <si>
-    <t>6640817</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Tank-to-Bowl Kit</t>
-  </si>
-  <si>
-    <t>6641311</t>
-  </si>
-  <si>
-    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
-  </si>
-  <si>
-    <t>6791164</t>
-  </si>
-  <si>
-    <t>1-Spray Chrome Fixed Mount Showerhead</t>
-  </si>
-  <si>
-    <t>6781269</t>
+    <t>ZZZShower Flange</t>
   </si>
   <si>
     <t>ZZZZZZ CANNOT DELETE- IGNORE</t>
@@ -1013,106 +1109,10 @@
     <t>6641298</t>
   </si>
   <si>
-    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
-  </si>
-  <si>
-    <t>6795388</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Flange Repair Kit</t>
-  </si>
-  <si>
-    <t>6642365</t>
-  </si>
-  <si>
-    <t>Premier Hot &amp; Cold buttons</t>
-  </si>
-  <si>
-    <t>set of 2</t>
-  </si>
-  <si>
-    <t>13-3863</t>
-  </si>
-  <si>
-    <t>ProLine 3/8" PVC Toilet Supply Line</t>
-  </si>
-  <si>
-    <t>6640137</t>
-  </si>
-  <si>
-    <t>ZZZShower Flange</t>
-  </si>
-  <si>
-    <t>Sink Supply Line</t>
-  </si>
-  <si>
-    <t>6794361</t>
-  </si>
-  <si>
-    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
-  </si>
-  <si>
-    <t>6791110</t>
-  </si>
-  <si>
-    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
-  </si>
-  <si>
-    <t>6791369</t>
-  </si>
-  <si>
-    <t>Tuscany Toilet</t>
-  </si>
-  <si>
-    <t>6704575</t>
-  </si>
-  <si>
-    <t>Shower/Bath Faucet Set</t>
-  </si>
-  <si>
-    <t>6736000</t>
-  </si>
-  <si>
-    <t>3" toilet flapper</t>
-  </si>
-  <si>
-    <t>6641516</t>
-  </si>
-  <si>
-    <t>angle valve for washer</t>
-  </si>
-  <si>
-    <t>680-9584</t>
-  </si>
-  <si>
-    <t>Replacement Faucet Handle</t>
-  </si>
-  <si>
-    <t>263727</t>
-  </si>
-  <si>
-    <t>HD Supply</t>
+    <t>zzzzzzzdo not use</t>
   </si>
   <si>
     <t>zzzzzzzzdo not use</t>
-  </si>
-  <si>
-    <t>680-9810</t>
-  </si>
-  <si>
-    <t>zzzzzzzdo not use</t>
-  </si>
-  <si>
-    <t>680-9568</t>
-  </si>
-  <si>
-    <t>1/2 female connector for shower valves</t>
-  </si>
-  <si>
-    <t>1/2 coupler for quick connector</t>
-  </si>
-  <si>
-    <t>1/2 coupler</t>
   </si>
   <si>
     <t>Total</t>
@@ -1410,18 +1410,18 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+        <v>17.53</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -1438,13 +1438,11 @@
         <v>18</v>
       </c>
       <c r="F10" s="9" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>1.06</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1456,17 +1454,19 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>4.64</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1474,21 +1474,23 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>37.44</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1496,23 +1498,21 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="n">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>10.33</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1520,21 +1520,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>11.47</v>
+        <v>1.81</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1542,23 +1542,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>31.0</v>
+        <v>6.71</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="n">
-        <v>156.0</v>
+        <v>5.0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="9" t="n">
-        <v>534.99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -1590,23 +1590,21 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>11.47</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1614,41 +1612,43 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="7"/>
+        <v>647.35</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>647.35</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>437.63</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="H19" s="7" t="s">
         <v>38</v>
       </c>
@@ -1662,15 +1662,17 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>31.0</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="H20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1680,23 +1682,23 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>437.63</v>
+        <v>534.99</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -1704,23 +1706,21 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>37.44</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>492.2</v>
+      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -1732,19 +1732,19 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>40.11</v>
+        <v>17.1</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -1754,19 +1754,23 @@
       <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D24" s="9" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>0.67</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H24" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -1774,21 +1778,25 @@
         <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D25" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>0.67</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="H25" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -1798,21 +1806,23 @@
       <c r="B26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D26" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>5.87</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -1822,21 +1832,23 @@
       <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D27" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>5.87</v>
+        <v>0.6</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -1846,21 +1858,23 @@
       <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D28" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>52.42</v>
+        <v>13.19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -1868,23 +1882,25 @@
         <v>47</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D29" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F29" s="9" t="n">
-        <v>53.49</v>
+        <v>13.19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1892,23 +1908,23 @@
         <v>47</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>9.58</v>
+        <v>7.47</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1932,23 @@
         <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>51.0</v>
+        <v>4.0</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -1942,23 +1956,23 @@
         <v>47</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>23.51</v>
+        <v>5.34</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -1966,23 +1980,25 @@
         <v>47</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="7"/>
       <c r="D33" s="9" t="n">
-        <v>3.0</v>
+        <v>41.0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>11.76</v>
+        <v>1.11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -1990,25 +2006,25 @@
         <v>47</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>13.24</v>
+        <v>2.08</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -2016,23 +2032,25 @@
         <v>47</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D35" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>7.47</v>
+        <v>4.54</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -2040,23 +2058,23 @@
         <v>47</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>5.34</v>
+        <v>91.58</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -2064,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D37" s="9" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>0.67</v>
+        <v>2.04</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -2090,25 +2108,25 @@
         <v>47</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D38" s="9" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>0.67</v>
+        <v>1.98</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -2116,25 +2134,23 @@
         <v>47</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>0.6</v>
+        <v>52.42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -2142,25 +2158,23 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>0.6</v>
+        <v>53.49</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
@@ -2168,23 +2182,23 @@
         <v>47</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>32.07</v>
+        <v>34.23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -2192,25 +2206,23 @@
         <v>47</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D42" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>43.85</v>
+      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
@@ -2218,25 +2230,21 @@
         <v>47</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C43" s="7"/>
       <c r="D43" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>94</v>
-      </c>
+        <v>100.33</v>
+      </c>
+      <c r="G43" s="7"/>
       <c r="H43" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
@@ -2244,25 +2252,23 @@
         <v>47</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C44" s="7"/>
       <c r="D44" s="9" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>2.32</v>
+        <v>9.58</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -2270,23 +2276,21 @@
         <v>47</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="9" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>23.53</v>
+      </c>
+      <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
@@ -2294,23 +2298,23 @@
         <v>47</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="9" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F46" s="9" t="n">
-        <v>7.47</v>
+        <v>23.51</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -2318,21 +2322,25 @@
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D47" s="9" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="G47" s="7"/>
+        <v>2.49</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="H47" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
@@ -2340,23 +2348,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>9.19</v>
+        <v>11.76</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
@@ -2364,25 +2372,23 @@
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C49" s="7"/>
       <c r="D49" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>13.19</v>
+        <v>5.87</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
@@ -2390,25 +2396,25 @@
         <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D50" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>13.19</v>
+        <v>13.24</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
@@ -2416,23 +2422,25 @@
         <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="D51" s="9" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>7.09</v>
+        <v>1.92</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -2440,23 +2448,25 @@
         <v>47</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="D52" s="9" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>7.09</v>
+        <v>2.32</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
@@ -2464,21 +2474,23 @@
         <v>47</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="G53" s="7"/>
+        <v>7.47</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="H53" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
@@ -2486,21 +2498,23 @@
         <v>47</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="G54" s="7"/>
+        <v>7.47</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="H54" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
@@ -2508,23 +2522,21 @@
         <v>47</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>118</v>
-      </c>
+        <v>8.99</v>
+      </c>
+      <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
@@ -2532,25 +2544,23 @@
         <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>2.08</v>
+        <v>9.19</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
@@ -2558,25 +2568,23 @@
         <v>47</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C57" s="7"/>
       <c r="D57" s="9" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>2.49</v>
+        <v>7.09</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
@@ -2584,25 +2592,23 @@
         <v>47</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C58" s="7"/>
       <c r="D58" s="9" t="n">
-        <v>48.0</v>
+        <v>7.0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>1.06</v>
+        <v>7.09</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
@@ -2610,25 +2616,21 @@
         <v>47</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>128</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C59" s="7"/>
       <c r="D59" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>129</v>
-      </c>
+        <v>35.0</v>
+      </c>
+      <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -2636,23 +2638,21 @@
         <v>47</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>91.58</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>131</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
@@ -2664,19 +2664,17 @@
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>39.99</v>
+      </c>
+      <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -2684,25 +2682,23 @@
         <v>47</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="H62" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63">
@@ -2710,25 +2706,25 @@
         <v>47</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="9" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" s="9" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="H63" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
@@ -2736,21 +2732,21 @@
         <v>47</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>100.33</v>
+        <v>6.96</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -2758,21 +2754,23 @@
         <v>47</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="G65" s="7"/>
+        <v>5.87</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="H65" s="7" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
@@ -2780,23 +2778,25 @@
         <v>47</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="9" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
@@ -2810,19 +2810,19 @@
         <v>146</v>
       </c>
       <c r="D67" s="9" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F67" s="9" t="n">
         <v>2.04</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68">
@@ -2834,17 +2834,17 @@
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F68" s="9" t="n">
         <v>23.53</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
@@ -2859,7 +2859,7 @@
         <v>1.0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F69" s="9" t="n">
         <v>352.03</v>
@@ -2881,7 +2881,7 @@
         <v>0.0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F70" s="9" t="n">
         <v>73.83</v>
@@ -2903,7 +2903,7 @@
         <v>1.0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F71" s="9" t="n">
         <v>171.19</v>
@@ -2925,7 +2925,7 @@
         <v>1.0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F72" s="9" t="n">
         <v>95.23</v>
@@ -2947,14 +2947,14 @@
         <v>0.0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F73" s="9" t="n">
         <v>212.93</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
@@ -2969,7 +2969,7 @@
         <v>0.0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F74" s="9" t="n">
         <v>191.53</v>
@@ -2991,14 +2991,14 @@
         <v>0.0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F75" s="9" t="n">
         <v>180.83</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -3013,14 +3013,14 @@
         <v>0.0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F76" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
@@ -3035,14 +3035,14 @@
         <v>0.0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F77" s="9" t="n">
         <v>255.73</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
@@ -3057,7 +3057,7 @@
         <v>1.0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F78" s="9" t="n">
         <v>170.13</v>
@@ -3079,7 +3079,7 @@
         <v>1.0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F79" s="9" t="n">
         <v>191.53</v>
@@ -3101,7 +3101,7 @@
         <v>1.0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F80" s="9" t="n">
         <v>576.73</v>
@@ -3123,14 +3123,14 @@
         <v>1.0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F81" s="9" t="n">
         <v>26.75</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82">
@@ -3145,7 +3145,7 @@
         <v>0.0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F82" s="9" t="n">
         <v>267.49</v>
@@ -3167,14 +3167,14 @@
         <v>1.0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F83" s="9" t="n">
         <v>95.23</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
@@ -3189,7 +3189,7 @@
         <v>1.0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F84" s="9" t="n">
         <v>255.73</v>
@@ -3208,19 +3208,19 @@
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>6.72</v>
+        <v>9.62</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>172</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86">
@@ -3237,7 +3237,7 @@
         <v>2.0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F86" s="9" t="n">
         <v>37.17</v>
@@ -3259,14 +3259,16 @@
         <v>2.0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G87" s="7"/>
+        <v>17.64</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H87" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
@@ -3274,21 +3276,23 @@
         <v>170</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="9" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G88" s="7"/>
+        <v>6.94</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="H88" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
@@ -3296,21 +3300,25 @@
         <v>170</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C89" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="D89" s="9" t="n">
-        <v>2.0</v>
+        <v>40.0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G89" s="7"/>
+        <v>0.33</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="H89" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90">
@@ -3318,21 +3326,21 @@
         <v>170</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F90" s="9" t="n">
-        <v>0.91</v>
+        <v>235.56</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91">
@@ -3340,21 +3348,23 @@
         <v>170</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G91" s="7"/>
+        <v>8.54</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="H91" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
@@ -3362,21 +3372,21 @@
         <v>170</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="9" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>0.91</v>
+        <v>266.75</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93">
@@ -3384,21 +3394,23 @@
         <v>170</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G93" s="7"/>
+        <v>6.72</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="H93" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -3406,21 +3418,23 @@
         <v>170</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G94" s="7"/>
+        <v>12.82</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="H94" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
@@ -3428,21 +3442,25 @@
         <v>170</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="D95" s="9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G95" s="7"/>
+        <v>13.89</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="H95" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96">
@@ -3450,21 +3468,21 @@
         <v>170</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F96" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97">
@@ -3472,23 +3490,21 @@
         <v>170</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F97" s="9" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>186</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
@@ -3496,23 +3512,21 @@
         <v>170</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="9" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F98" s="9" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
@@ -3520,23 +3534,21 @@
         <v>170</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>190</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100">
@@ -3544,23 +3556,21 @@
         <v>170</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F100" s="9" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>192</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101">
@@ -3568,23 +3578,21 @@
         <v>170</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="9" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>194</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G101" s="7"/>
       <c r="H101" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102">
@@ -3592,25 +3600,21 @@
         <v>170</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>196</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C102" s="7"/>
       <c r="D102" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G102" s="7"/>
       <c r="H102" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103">
@@ -3618,41 +3622,43 @@
         <v>170</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F103" s="9" t="n">
-        <v>5.0</v>
+        <v>0.91</v>
       </c>
       <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="H103" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>55.64</v>
+        <v>0.91</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
@@ -3660,23 +3666,21 @@
         <v>170</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>202</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G105" s="7"/>
       <c r="H105" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
@@ -3684,23 +3688,23 @@
         <v>170</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D106" s="9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="9" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>204</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G106" s="7"/>
       <c r="H106" s="7" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107">
@@ -3708,21 +3712,23 @@
         <v>170</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C107" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D107" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>5.34</v>
+        <v>37.45</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
@@ -3730,21 +3736,25 @@
         <v>170</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C108" s="7"/>
+        <v>209</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="D108" s="9" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F108" s="9" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="G108" s="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="H108" s="7" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109">
@@ -3752,25 +3762,23 @@
         <v>170</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>208</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C109" s="7"/>
       <c r="D109" s="9" t="n">
-        <v>40.0</v>
+        <v>3.0</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>0.33</v>
+        <v>7.64</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
@@ -3778,16 +3786,16 @@
         <v>170</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D110" s="9" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F110" s="9" t="n">
         <v>37.45</v>
@@ -3800,25 +3808,23 @@
         <v>170</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D111" s="9" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F111" s="9" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>215</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112">
@@ -3828,21 +3834,21 @@
       <c r="B112" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="C112" s="7"/>
       <c r="D112" s="9" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G112" s="7"/>
+        <v>7.97</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="H112" s="7" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113">
@@ -3852,22 +3858,18 @@
       <c r="B113" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="C113" s="7"/>
       <c r="D113" s="9" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F113" s="9" t="n">
-        <v>37.45</v>
+        <v>5.0</v>
       </c>
       <c r="G113" s="7"/>
-      <c r="H113" s="7" t="s">
-        <v>217</v>
-      </c>
+      <c r="H113" s="7"/>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
@@ -3876,21 +3878,21 @@
       <c r="B114" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="C114" s="7"/>
       <c r="D114" s="9" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G114" s="7"/>
+        <v>272.85</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="H114" s="7" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115">
@@ -3898,23 +3900,21 @@
         <v>170</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>212</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C115" s="7"/>
       <c r="D115" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>20.0</v>
+        <v>55.64</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116">
@@ -3922,23 +3922,23 @@
         <v>170</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>212</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C116" s="7"/>
       <c r="D116" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="G116" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="H116" s="7" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117">
@@ -3946,23 +3946,23 @@
         <v>170</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F117" s="9" t="n">
         <v>373.43</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118">
@@ -3970,23 +3970,21 @@
         <v>170</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>225</v>
-      </c>
+        <v>5.34</v>
+      </c>
+      <c r="G118" s="7"/>
       <c r="H118" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
@@ -3994,23 +3992,23 @@
         <v>170</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F119" s="9" t="n">
         <v>272.85</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120">
@@ -4018,23 +4016,21 @@
         <v>170</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="9" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>229</v>
-      </c>
+        <v>7.29</v>
+      </c>
+      <c r="G120" s="7"/>
       <c r="H120" s="7" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
@@ -4042,21 +4038,23 @@
         <v>170</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C121" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D121" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>235.56</v>
+        <v>20.0</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122">
@@ -4066,19 +4064,21 @@
       <c r="B122" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C122" s="7"/>
+      <c r="C122" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D122" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>266.75</v>
+        <v>10.69</v>
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="9" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F123" s="9" t="n">
         <v>6.72</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124">
@@ -4116,10 +4116,10 @@
         <v>236</v>
       </c>
       <c r="D124" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F124" s="9" t="n">
         <v>11.76</v>
@@ -4128,7 +4128,7 @@
         <v>237</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125">
@@ -4140,19 +4140,19 @@
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>10.68</v>
+        <v>3.19</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>239</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126">
@@ -4164,19 +4164,19 @@
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>3.19</v>
+        <v>3.83</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>241</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127">
@@ -4188,19 +4188,19 @@
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="9" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>12.82</v>
+        <v>127.33</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>243</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128">
@@ -4215,16 +4215,16 @@
         <v>1.0</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>11.22</v>
+        <v>127.33</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>245</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129">
@@ -4236,19 +4236,19 @@
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="9" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>10.15</v>
+        <v>11.22</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>247</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130">
@@ -4258,23 +4258,21 @@
       <c r="B130" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="7"/>
+      <c r="D130" s="9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F130" s="9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D130" s="9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" s="9" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="H130" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131">
@@ -4282,25 +4280,23 @@
         <v>234</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F131" s="9" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D131" s="9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131" s="9" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="H131" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132">
@@ -4308,25 +4304,23 @@
         <v>234</v>
       </c>
       <c r="B132" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D132" s="9" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F132" s="9" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="H132" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133">
@@ -4334,25 +4328,25 @@
         <v>234</v>
       </c>
       <c r="B133" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="D133" s="9" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>256</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134">
@@ -4362,21 +4356,23 @@
       <c r="B134" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C134" s="7"/>
+      <c r="C134" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D134" s="9" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>3.18</v>
+        <v>0.38</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>258</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135">
@@ -4388,19 +4384,19 @@
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>7.46</v>
+        <v>25.67</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136">
@@ -4412,19 +4408,19 @@
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>3.19</v>
+        <v>12.82</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137">
@@ -4436,19 +4432,19 @@
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>3.83</v>
+        <v>12.29</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>264</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138">
@@ -4458,23 +4454,21 @@
       <c r="B138" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="7"/>
+      <c r="D138" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F138" s="9" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D138" s="9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F138" s="9" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="H138" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139">
@@ -4482,23 +4476,25 @@
         <v>234</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C139" s="7"/>
       <c r="D139" s="9" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>127.33</v>
+        <v>10.15</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>269</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140">
@@ -4508,21 +4504,23 @@
       <c r="B140" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C140" s="7"/>
+      <c r="C140" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D140" s="9" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>127.33</v>
+        <v>0.39</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>271</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141">
@@ -4532,21 +4530,23 @@
       <c r="B141" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C141" s="7"/>
+      <c r="C141" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="D141" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>25.67</v>
+        <v>0.38</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>273</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142">
@@ -4558,19 +4558,19 @@
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>46.86</v>
+        <v>7.46</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>275</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143">
@@ -4585,16 +4585,16 @@
         <v>6.0</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>12.29</v>
+        <v>3.19</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>277</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144">
@@ -4606,19 +4606,19 @@
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>14.41</v>
+        <v>3.18</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>279</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145">
@@ -4632,10 +4632,10 @@
         <v>236</v>
       </c>
       <c r="D145" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F145" s="9" t="n">
         <v>11.76</v>
@@ -4644,7 +4644,7 @@
         <v>237</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146">
@@ -4659,14 +4659,16 @@
         <v>3.0</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G146" s="7"/>
+        <v>3.95</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="H146" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147">
@@ -4674,23 +4676,23 @@
         <v>281</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>21.39</v>
+        <v>8.55</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148">
@@ -4698,25 +4700,25 @@
         <v>281</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="D148" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F148" s="9" t="n">
-        <v>1.31</v>
+        <v>8.24</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149">
@@ -4724,23 +4726,25 @@
         <v>281</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C149" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="D149" s="9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>9.61</v>
+        <v>5.99</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
@@ -4748,25 +4752,23 @@
         <v>281</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C150" s="7"/>
       <c r="D150" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>4.26</v>
+        <v>9.62</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
@@ -4774,23 +4776,23 @@
         <v>281</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>37.66</v>
+        <v>12.27</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>287</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152">
@@ -4798,25 +4800,23 @@
         <v>281</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C152" s="7"/>
       <c r="D152" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>2.66</v>
+        <v>4.78</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153">
@@ -4824,23 +4824,21 @@
         <v>281</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>297</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G153" s="7"/>
       <c r="H153" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
@@ -4852,19 +4850,19 @@
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>3.95</v>
+        <v>10.56</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>299</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
@@ -4879,16 +4877,16 @@
         <v>2.0</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>9.62</v>
+        <v>21.39</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>301</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156">
@@ -4900,19 +4898,19 @@
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>9.62</v>
+        <v>6.41</v>
       </c>
       <c r="G156" s="7" t="s">
         <v>303</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157">
@@ -4924,19 +4922,19 @@
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="9" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>19.25</v>
+        <v>11.76</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>305</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158">
@@ -4948,19 +4946,19 @@
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>11.76</v>
+        <v>6.41</v>
       </c>
       <c r="G158" s="7" t="s">
         <v>307</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159">
@@ -4970,21 +4968,23 @@
       <c r="B159" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C159" s="7"/>
+      <c r="C159" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="D159" s="9" t="n">
         <v>5.0</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>6.41</v>
+        <v>1.31</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>309</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160">
@@ -4992,23 +4992,23 @@
         <v>281</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>7.48</v>
+        <v>9.61</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161">
@@ -5016,23 +5016,25 @@
         <v>281</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C161" s="7"/>
+        <v>313</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D161" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>11.76</v>
+        <v>4.26</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162">
@@ -5040,23 +5042,23 @@
         <v>281</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="9" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>8.55</v>
+        <v>37.66</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163">
@@ -5064,23 +5066,25 @@
         <v>281</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C163" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="D163" s="9" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>2.97</v>
+        <v>2.32</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164">
@@ -5088,23 +5092,23 @@
         <v>281</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>6.41</v>
+        <v>9.62</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165">
@@ -5112,23 +5116,23 @@
         <v>281</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>7.48</v>
+        <v>19.25</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166">
@@ -5136,25 +5140,25 @@
         <v>281</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D166" s="9" t="n">
         <v>12.0</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F166" s="9" t="n">
         <v>1.28</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167">
@@ -5162,23 +5166,23 @@
         <v>281</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F167" s="9" t="n">
         <v>5.55</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168">
@@ -5186,25 +5190,23 @@
         <v>281</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C168" s="7"/>
       <c r="D168" s="9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>5.32</v>
+        <v>2.45</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>29</v>
+        <v>330</v>
       </c>
     </row>
     <row r="169">
@@ -5212,23 +5214,23 @@
         <v>281</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>5.34</v>
+        <v>7.48</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="170">
@@ -5236,23 +5238,23 @@
         <v>281</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="9" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>6.4</v>
+        <v>7.48</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="171">
@@ -5260,25 +5262,23 @@
         <v>281</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C171" s="7"/>
       <c r="D171" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>2.32</v>
+        <v>73.83</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172">
@@ -5286,23 +5286,23 @@
         <v>281</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="9" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>105.93</v>
+        <v>5.34</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173">
@@ -5310,23 +5310,23 @@
         <v>281</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>73.83</v>
+        <v>11.76</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174">
@@ -5334,23 +5334,23 @@
         <v>281</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>12.27</v>
+        <v>105.93</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175">
@@ -5358,23 +5358,23 @@
         <v>281</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>10.56</v>
+        <v>6.4</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="176">
@@ -5382,23 +5382,25 @@
         <v>281</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C176" s="7"/>
+        <v>345</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D176" s="9" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>2.45</v>
+        <v>2.66</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>344</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177">
@@ -5406,45 +5408,49 @@
         <v>281</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C177" s="7"/>
+        <v>347</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D177" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>8.24</v>
+        <v>5.32</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H177" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
         <v>281</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>5.99</v>
+        <v>2.97</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179">
@@ -5452,25 +5458,23 @@
         <v>281</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>349</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C179" s="7"/>
       <c r="D179" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="F179" s="9" t="n">
         <v>5.99</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180">
@@ -5478,26 +5482,22 @@
         <v>281</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C180" s="7" t="s">
         <v>351</v>
       </c>
+      <c r="C180" s="7"/>
       <c r="D180" s="9" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F180" s="9" t="n">
         <v>8.24</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="H180" s="7"/>
     </row>
     <row r="181"/>
     <row r="182">
@@ -5507,7 +5507,7 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="10" t="n">
-        <v>1131.0</v>
+        <v>849.0</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="10"/>

--- a/newton.xlsx
+++ b/newton.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="353" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="357" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>01/07/2025 08:54 PM</t>
+      <t>06/08/2025 12:32 PM</t>
     </r>
   </si>
   <si>
@@ -96,34 +96,97 @@
     <t>Vendor</t>
   </si>
   <si>
+    <t>Snow plow</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>66E</t>
+  </si>
+  <si>
     <t>Appliances</t>
   </si>
   <si>
+    <t>6" Drip Pan</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dey Distributing Inc</t>
+  </si>
+  <si>
+    <t>6" GE drip pan</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WB32X5075</t>
+  </si>
+  <si>
+    <t>6" Heating Element</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8" Drip Pan</t>
+  </si>
+  <si>
+    <t>8" GE drip pan</t>
+  </si>
+  <si>
+    <t>WB32X5076</t>
+  </si>
+  <si>
+    <t>8" Heating element</t>
+  </si>
+  <si>
+    <t>Richmond? Electric Water Heater Tune Up Kit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6832301</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
+    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
+  </si>
+  <si>
+    <t>6235506</t>
+  </si>
+  <si>
+    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
+  </si>
+  <si>
+    <t>6933108</t>
+  </si>
+  <si>
     <t>3/4" x 18" Water Heater Supply Line</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>6831555</t>
   </si>
   <si>
-    <t>6" Drip Pan</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Dey Distributing Inc</t>
-  </si>
-  <si>
-    <t>6" GE drip pan</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>WB32X5075</t>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
+    <t>Stove</t>
+  </si>
+  <si>
+    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
+  </si>
+  <si>
+    <t>6835049</t>
   </si>
   <si>
     <t>6" GE element</t>
@@ -135,72 +198,105 @@
     <t>Menards</t>
   </si>
   <si>
-    <t>6" Heating Element</t>
-  </si>
-  <si>
-    <t>8" Drip Pan</t>
-  </si>
-  <si>
-    <t>8" GE drip pan</t>
-  </si>
-  <si>
-    <t>WB32X5076</t>
-  </si>
-  <si>
     <t>8" GE element</t>
   </si>
   <si>
     <t>569-0612</t>
   </si>
   <si>
-    <t>8" Heating element</t>
-  </si>
-  <si>
-    <t>Refrigerator</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Archer Home Center</t>
-  </si>
-  <si>
-    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
-  </si>
-  <si>
-    <t>6835049</t>
-  </si>
-  <si>
-    <t>Menards - Kading Properties LLC</t>
-  </si>
-  <si>
-    <t>Richmond? Electric Water Heater Tune Up Kit</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6832301</t>
-  </si>
-  <si>
-    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
-  </si>
-  <si>
-    <t>6235506</t>
-  </si>
-  <si>
-    <t>Stove</t>
-  </si>
-  <si>
-    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
-  </si>
-  <si>
-    <t>6933108</t>
-  </si>
-  <si>
     <t>Electrical</t>
   </si>
   <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
+    <t>Zzzzzzdonotuse</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>60W Soft White LED Regular Light Bulb</t>
+  </si>
+  <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
+  </si>
+  <si>
+    <t>FireX Direct Wire Ionization Smoke Alarm</t>
+  </si>
+  <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
     <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
   </si>
   <si>
@@ -228,6 +324,63 @@
     <t>3639847</t>
   </si>
   <si>
+    <t>42" White Indoor LED Ceiling Fan</t>
+  </si>
+  <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
+    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
     <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
   </si>
   <si>
@@ -243,34 +396,28 @@
     <t>3633946</t>
   </si>
   <si>
-    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
-  </si>
-  <si>
-    <t>3633759</t>
-  </si>
-  <si>
-    <t>42" White Indoor LED Ceiling Fan</t>
-  </si>
-  <si>
-    <t>3550712</t>
-  </si>
-  <si>
-    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
-  </si>
-  <si>
-    <t>3633733</t>
-  </si>
-  <si>
-    <t>60W Soft White LED Regular Light Bulb</t>
-  </si>
-  <si>
-    <t>ct as sngl; 24-pack</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>3531029</t>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
   </si>
   <si>
     <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
@@ -282,25 +429,73 @@
     <t>3534371</t>
   </si>
   <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>3533415</t>
+  </si>
+  <si>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>3533186</t>
+  </si>
+  <si>
+    <t>Zzzzdonot</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
+    <t>Zzzzdonotuse</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pack</t>
+  </si>
+  <si>
+    <t>3538637</t>
+  </si>
+  <si>
     <t>A15 LED FAN Bulb - 60 Watt</t>
   </si>
   <si>
-    <t>ct as sngl; comes in 2 pack</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>3530189</t>
   </si>
   <si>
-    <t>Aircycler Smart Exhaust Switch</t>
-  </si>
-  <si>
-    <t>AIR SE1-W</t>
-  </si>
-  <si>
-    <t>Echo Group, Inc.</t>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Universal garage door remote</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Hallway only IF garage is attached</t>
   </si>
   <si>
     <t>B10 FAN Light Bulbs - 60 W</t>
@@ -309,198 +504,18 @@
     <t>ct as sngl; comes in 6 pk</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3538637</t>
+    <t>Electronic Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>52" ceiling fan</t>
+  </si>
+  <si>
+    <t>Lowes</t>
   </si>
   <si>
     <t>Brass Knurled Head Screws (3-Pack)</t>
   </si>
   <si>
-    <t>comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3456664</t>
-  </si>
-  <si>
-    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354001</t>
-  </si>
-  <si>
-    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354003</t>
-  </si>
-  <si>
-    <t>Cadet Thermostat</t>
-  </si>
-  <si>
-    <t>3354031</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide Detector</t>
-  </si>
-  <si>
-    <t>Hallway only IF garage is attached</t>
-  </si>
-  <si>
-    <t>3E-Electrical Engineering &amp; Equipment Company</t>
-  </si>
-  <si>
-    <t>delta vent fan</t>
-  </si>
-  <si>
-    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
-  </si>
-  <si>
-    <t>3636057</t>
-  </si>
-  <si>
-    <t>Electronic Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FireX Direct Wire Ionization Smoke Alarm</t>
-  </si>
-  <si>
-    <t>3584619</t>
-  </si>
-  <si>
-    <t>G25 VANITY Light Bulbs - 40 Watt</t>
-  </si>
-  <si>
-    <t>3533415</t>
-  </si>
-  <si>
-    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
-  </si>
-  <si>
-    <t>3513170</t>
-  </si>
-  <si>
-    <t>Ivory 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3632909</t>
-  </si>
-  <si>
-    <t>Kitchen Light Fixture-13" Stella White</t>
-  </si>
-  <si>
-    <t>3514207</t>
-  </si>
-  <si>
-    <t>Patriot Lighting? White Teardrop Pull Chain</t>
-  </si>
-  <si>
-    <t>for ceiling fan</t>
-  </si>
-  <si>
-    <t>3458565</t>
-  </si>
-  <si>
-    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6-pk</t>
-  </si>
-  <si>
-    <t>5756026</t>
-  </si>
-  <si>
-    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670100</t>
-  </si>
-  <si>
-    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670102</t>
-  </si>
-  <si>
-    <t>Silver Dryer outlet cover</t>
-  </si>
-  <si>
-    <t>Smart Electrican? Light Control with Photocell</t>
-  </si>
-  <si>
-    <t>3681235</t>
-  </si>
-  <si>
-    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674640</t>
-  </si>
-  <si>
-    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674653</t>
-  </si>
-  <si>
-    <t>Stelpro 24" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro 48" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
-  </si>
-  <si>
-    <t>3636060</t>
-  </si>
-  <si>
-    <t>Torrino Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>3564916</t>
-  </si>
-  <si>
-    <t>Universal garage door remote</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>White 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3638974</t>
-  </si>
-  <si>
-    <t>ZZZCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>3533186</t>
-  </si>
-  <si>
-    <t>Zzzzdonotuse</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6 pack</t>
-  </si>
-  <si>
-    <t>Zzzzzzdonotuse</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -540,9 +555,6 @@
     <t>Sawzall</t>
   </si>
   <si>
-    <t>Lowes</t>
-  </si>
-  <si>
     <t>Skillsaw</t>
   </si>
   <si>
@@ -561,7 +573,7 @@
     <t>Sprayer Backpacks</t>
   </si>
   <si>
-    <t>Weed Whips</t>
+    <t>Trimmer-235E</t>
   </si>
   <si>
     <t>VanWall Equipment</t>
@@ -570,10 +582,10 @@
     <t>Exterior</t>
   </si>
   <si>
-    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
-  </si>
-  <si>
-    <t>5674704</t>
+    <t>Zzzzzdonotuse</t>
+  </si>
+  <si>
+    <t>4366468</t>
   </si>
   <si>
     <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
@@ -582,106 +594,64 @@
     <t>1 unit=1 box</t>
   </si>
   <si>
+    <t>Address #0</t>
+  </si>
+  <si>
+    <t>Address #1</t>
+  </si>
+  <si>
+    <t>Address #2</t>
+  </si>
+  <si>
+    <t>Address #3</t>
+  </si>
+  <si>
+    <t>Address #4</t>
+  </si>
+  <si>
+    <t>Address #5</t>
+  </si>
+  <si>
+    <t>Address #6</t>
+  </si>
+  <si>
+    <t>Address #7</t>
+  </si>
+  <si>
+    <t>Address #8</t>
+  </si>
+  <si>
+    <t>Address #9</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
     <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311384</t>
   </si>
   <si>
-    <t>4" White Louvered Wall Vent Hood Cap</t>
-  </si>
-  <si>
-    <t>6399126</t>
-  </si>
-  <si>
-    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 20-ct</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6485275</t>
-  </si>
-  <si>
-    <t>4x4 slider</t>
-  </si>
-  <si>
-    <t>Gilcrest Jewett Lumber Company</t>
-  </si>
-  <si>
-    <t>5" White Wall Vent Hood Pest Barricade</t>
-  </si>
-  <si>
-    <t>6399429</t>
-  </si>
-  <si>
-    <t>5x4 slider</t>
-  </si>
-  <si>
-    <t>81" Foam Replacement Door Seal - BEIGE</t>
-  </si>
-  <si>
-    <t>4366468</t>
-  </si>
-  <si>
     <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311371</t>
-  </si>
-  <si>
-    <t>Ac trim</t>
-  </si>
-  <si>
-    <t>Outside trim for Ac</t>
-  </si>
-  <si>
-    <t>142-3100</t>
-  </si>
-  <si>
-    <t>Address #0</t>
-  </si>
-  <si>
-    <t>Address #1</t>
-  </si>
-  <si>
-    <t>Address #2</t>
-  </si>
-  <si>
-    <t>Address #3</t>
-  </si>
-  <si>
-    <t>Address #4</t>
-  </si>
-  <si>
-    <t>Address #5</t>
-  </si>
-  <si>
-    <t>Address #6</t>
-  </si>
-  <si>
-    <t>Address #7</t>
-  </si>
-  <si>
-    <t>Address #8</t>
-  </si>
-  <si>
-    <t>Address #9</t>
-  </si>
-  <si>
-    <t>Crestline 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Window screen</t>
-  </si>
-  <si>
-    <t>Bill's Windows &amp; Screens</t>
-  </si>
-  <si>
-    <t>Crestline 5' Window Screen</t>
   </si>
   <si>
     <t>Garage Door Rolled Steel Lift Handles</t>
@@ -694,25 +664,94 @@
     <t>4311444</t>
   </si>
   <si>
-    <t>Garage Door Sliding Interior Side Lock</t>
-  </si>
-  <si>
-    <t>4311428</t>
+    <t>Jelly Jar replacement globes</t>
+  </si>
+  <si>
+    <t>Master key locking mechanisms (deadbolts)</t>
+  </si>
+  <si>
+    <t>Security Equipment, Inc.</t>
+  </si>
+  <si>
+    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
+  </si>
+  <si>
+    <t>5674704</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
+    <t>Plastic Universal outlet cover-clear</t>
+  </si>
+  <si>
+    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
+  </si>
+  <si>
+    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
   </si>
   <si>
     <t>Jeld Wen 4' Window Screen</t>
   </si>
   <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Ac trim</t>
+  </si>
+  <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
+  </si>
+  <si>
     <t>Jeld Wen 5' Window Screen30</t>
   </si>
   <si>
-    <t>Jelly Jar Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>3565001</t>
-  </si>
-  <si>
-    <t>Jelly Jar replacement globes</t>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>4140356</t>
+  </si>
+  <si>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
   </si>
   <si>
     <t>LH Service door</t>
@@ -721,49 +760,22 @@
     <t>4140337</t>
   </si>
   <si>
-    <t>Master key locking mechanisms (deadbolts)</t>
-  </si>
-  <si>
-    <t>Security Equipment, Inc.</t>
-  </si>
-  <si>
-    <t>Mastercraft LH Front Door</t>
-  </si>
-  <si>
-    <t>4140357</t>
-  </si>
-  <si>
-    <t>Mastercraft RH Front Door</t>
-  </si>
-  <si>
-    <t>4140356</t>
-  </si>
-  <si>
-    <t>Plastic Universal outlet cover-clear</t>
-  </si>
-  <si>
-    <t>RH Service door</t>
-  </si>
-  <si>
-    <t>4140336</t>
-  </si>
-  <si>
-    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
-  </si>
-  <si>
-    <t>Windsor 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Windsor 5' Window Screen</t>
-  </si>
-  <si>
-    <t>Zzzzzdonotuse</t>
+    <t>4x4 slider</t>
+  </si>
+  <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5x4 slider</t>
+  </si>
+  <si>
+    <t>81" Foam Replacement Door Seal - BEIGE</t>
   </si>
   <si>
     <t>Interior Decor</t>
   </si>
   <si>
-    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
+    <t>Zzzdo not use</t>
   </si>
   <si>
     <t>Pine board</t>
@@ -772,28 +784,22 @@
     <t>1031405</t>
   </si>
   <si>
-    <t>3-1/4" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316042</t>
-  </si>
-  <si>
-    <t>5" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316054</t>
-  </si>
-  <si>
-    <t>6 panel LH Interior Door</t>
-  </si>
-  <si>
-    <t>4112597</t>
-  </si>
-  <si>
-    <t>6 panel RH Interior Door</t>
-  </si>
-  <si>
-    <t>4112596</t>
+    <t>Chrome Toilet Paper Holder</t>
+  </si>
+  <si>
+    <t>6751654</t>
+  </si>
+  <si>
+    <t>White Toilet Paper Holder Roller</t>
+  </si>
+  <si>
+    <t>6752200</t>
+  </si>
+  <si>
+    <t>Round White Plastic Toilet Seat</t>
+  </si>
+  <si>
+    <t>6764300</t>
   </si>
   <si>
     <t>Brass Bed &amp; Bath Privacy Door Knob</t>
@@ -806,18 +812,6 @@
   </si>
   <si>
     <t>2218434</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Paper Holder</t>
-  </si>
-  <si>
-    <t>6751654</t>
-  </si>
-  <si>
-    <t>Concrete Floor Paint</t>
-  </si>
-  <si>
-    <t>5512344</t>
   </si>
   <si>
     <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
@@ -836,16 +830,73 @@
     <t>3712308</t>
   </si>
   <si>
+    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712337</t>
+  </si>
+  <si>
+    <t>White Duplex Outlet Wall Plate- 10 pk</t>
+  </si>
+  <si>
+    <t>3712311</t>
+  </si>
+  <si>
+    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
+  </si>
+  <si>
+    <t>3715730</t>
+  </si>
+  <si>
+    <t>White Globe Replacement Glass with 3-1/4"</t>
+  </si>
+  <si>
+    <t>3451973</t>
+  </si>
+  <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Inside trim for Ac</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
+    <t>6 panel RH Interior Door</t>
+  </si>
+  <si>
+    <t>4112596</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
     <t>Mirror</t>
   </si>
   <si>
     <t>5412091</t>
   </si>
   <si>
-    <t>Round White Plastic Toilet Seat</t>
-  </si>
-  <si>
-    <t>6764300</t>
+    <t>Concrete Floor Paint</t>
+  </si>
+  <si>
+    <t>5512344</t>
   </si>
   <si>
     <t>Satin Nickel hall &amp; closet door knob</t>
@@ -860,259 +911,220 @@
     <t>2218721</t>
   </si>
   <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Inside trim for Ac</t>
-  </si>
-  <si>
-    <t>103-7010</t>
-  </si>
-  <si>
-    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
-  </si>
-  <si>
-    <t>3712337</t>
-  </si>
-  <si>
-    <t>White Duplex Outlet Wall Plate- 10 pk</t>
-  </si>
-  <si>
-    <t>3712311</t>
-  </si>
-  <si>
-    <t>White Globe Replacement Glass with 3-1/4"</t>
-  </si>
-  <si>
-    <t>3451973</t>
-  </si>
-  <si>
-    <t>White Toilet Paper Holder Roller</t>
-  </si>
-  <si>
-    <t>6752200</t>
-  </si>
-  <si>
-    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
-  </si>
-  <si>
-    <t>3715730</t>
-  </si>
-  <si>
-    <t>Zzzdo not use</t>
+    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
   </si>
   <si>
     <t>Plumbing</t>
   </si>
   <si>
+    <t>Air Ventilator Motor Kit</t>
+  </si>
+  <si>
+    <t>Bathroom Sink Faucet</t>
+  </si>
+  <si>
+    <t>6739543</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
+    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
+  </si>
+  <si>
+    <t>6640338</t>
+  </si>
+  <si>
+    <t>Korky? Plus Toilet Flapper</t>
+  </si>
+  <si>
+    <t>6641420</t>
+  </si>
+  <si>
+    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
+  </si>
+  <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>6641269</t>
+  </si>
+  <si>
+    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
+  </si>
+  <si>
+    <t>6641300</t>
+  </si>
+  <si>
     <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
   </si>
   <si>
     <t>6799739</t>
   </si>
   <si>
+    <t>2" Replacement Toilet Flush Valve</t>
+  </si>
+  <si>
+    <t>6642019</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
+    <t>Plumb Works? Chrome Diverter Tub Spout</t>
+  </si>
+  <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Chrome Pop-Up Bathroom Sink Drain</t>
+  </si>
+  <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
     <t>1-Spray Chrome Fixed Mount Showerhead</t>
   </si>
   <si>
     <t>6781269</t>
   </si>
   <si>
+    <t>ZZZZZZ CANNOT DELETE- IGNORE</t>
+  </si>
+  <si>
+    <t>6641298</t>
+  </si>
+  <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Flange Repair Kit</t>
+  </si>
+  <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>ZZZShower Flange</t>
+  </si>
+  <si>
+    <t>Sink Supply Line</t>
+  </si>
+  <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Shower/Bath Faucet Set</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
+    <t>3" toilet flapper</t>
+  </si>
+  <si>
+    <t>6641516</t>
+  </si>
+  <si>
+    <t>angle valve for washer</t>
+  </si>
+  <si>
+    <t>680-9584</t>
+  </si>
+  <si>
+    <t>Replacement Faucet Handle</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
+    <t>zzzzzzzzdo not use</t>
+  </si>
+  <si>
+    <t>680-9810</t>
+  </si>
+  <si>
+    <t>zzzzzzzdo not use</t>
+  </si>
+  <si>
+    <t>680-9568</t>
+  </si>
+  <si>
+    <t>1/2 female connector for shower valves</t>
+  </si>
+  <si>
     <t>1/2 coupler for quick connector</t>
   </si>
   <si>
     <t>1/2 coupler</t>
-  </si>
-  <si>
-    <t>680-9810</t>
-  </si>
-  <si>
-    <t>1/2 female connector for shower valves</t>
-  </si>
-  <si>
-    <t>680-9568</t>
-  </si>
-  <si>
-    <t>2" Replacement Toilet Flush Valve</t>
-  </si>
-  <si>
-    <t>6642019</t>
-  </si>
-  <si>
-    <t>3" toilet flapper</t>
-  </si>
-  <si>
-    <t>6641516</t>
-  </si>
-  <si>
-    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
-  </si>
-  <si>
-    <t>6641300</t>
-  </si>
-  <si>
-    <t>Air Ventilator Motor Kit</t>
-  </si>
-  <si>
-    <t>angle valve for washer</t>
-  </si>
-  <si>
-    <t>680-9584</t>
-  </si>
-  <si>
-    <t>Bathroom Sink Faucet</t>
-  </si>
-  <si>
-    <t>6739543</t>
-  </si>
-  <si>
-    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
-  </si>
-  <si>
-    <t>6795388</t>
-  </si>
-  <si>
-    <t>Chrome Pop-Up Bathroom Sink Drain</t>
-  </si>
-  <si>
-    <t>6795416</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Tank Lever with Metal Arm</t>
-  </si>
-  <si>
-    <t>6640817</t>
-  </si>
-  <si>
-    <t>DUAL THRD AERATOR 2.2GPM</t>
-  </si>
-  <si>
-    <t>24-89576</t>
-  </si>
-  <si>
-    <t>Home Depot Pro</t>
-  </si>
-  <si>
-    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
-  </si>
-  <si>
-    <t>6640338</t>
-  </si>
-  <si>
-    <t>Korky? Plus Toilet Flapper</t>
-  </si>
-  <si>
-    <t>6641420</t>
-  </si>
-  <si>
-    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
-  </si>
-  <si>
-    <t>35-52592</t>
-  </si>
-  <si>
-    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
-  </si>
-  <si>
-    <t>6791369</t>
-  </si>
-  <si>
-    <t>Plumb Works? 6" Shower Arm with Flange</t>
-  </si>
-  <si>
-    <t>6784373</t>
-  </si>
-  <si>
-    <t>Plumb Works? Chrome Diverter Tub Spout</t>
-  </si>
-  <si>
-    <t>6790336</t>
-  </si>
-  <si>
-    <t>Premier Hot &amp; Cold buttons</t>
-  </si>
-  <si>
-    <t>set of 2</t>
-  </si>
-  <si>
-    <t>13-3863</t>
-  </si>
-  <si>
-    <t>ProLine 3/8" PVC Toilet Supply Line</t>
-  </si>
-  <si>
-    <t>6640137</t>
-  </si>
-  <si>
-    <t>Replacement Faucet Handle</t>
-  </si>
-  <si>
-    <t>263727</t>
-  </si>
-  <si>
-    <t>HD Supply</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Flange Repair Kit</t>
-  </si>
-  <si>
-    <t>6642365</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Tank-to-Bowl Kit</t>
-  </si>
-  <si>
-    <t>6641311</t>
-  </si>
-  <si>
-    <t>Shower/Bath Faucet Set</t>
-  </si>
-  <si>
-    <t>6736000</t>
-  </si>
-  <si>
-    <t>Sink Supply Line</t>
-  </si>
-  <si>
-    <t>6794361</t>
-  </si>
-  <si>
-    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
-  </si>
-  <si>
-    <t>6791164</t>
-  </si>
-  <si>
-    <t>Tuscany Toilet</t>
-  </si>
-  <si>
-    <t>6704575</t>
-  </si>
-  <si>
-    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
-  </si>
-  <si>
-    <t>6791110</t>
-  </si>
-  <si>
-    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>6641269</t>
-  </si>
-  <si>
-    <t>ZZZShower Flange</t>
-  </si>
-  <si>
-    <t>ZZZZZZ CANNOT DELETE- IGNORE</t>
-  </si>
-  <si>
-    <t>6641298</t>
-  </si>
-  <si>
-    <t>zzzzzzzdo not use</t>
-  </si>
-  <si>
-    <t>zzzzzzzzdo not use</t>
   </si>
   <si>
     <t>Total</t>
@@ -1279,13 +1291,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="20.166666666666668" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="20.75166666666667" min="1" max="1" bestFit="1" customWidth="1"/>
     <col width="68.39999999999999" min="2" max="2" bestFit="1" customWidth="1"/>
     <col width="49.199999999999996" min="3" max="3" bestFit="1" customWidth="1"/>
     <col width="21.45" min="4" max="4" bestFit="1" customWidth="1"/>
@@ -1402,37 +1414,35 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" s="9" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -1447,14 +1457,14 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
@@ -1471,44 +1481,42 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>37.44</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>10.33</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>10.33</v>
+        <v>1.81</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
@@ -1517,1291 +1525,1291 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>6.71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>11.47</v>
+      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>40.11</v>
+        <v>31.0</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="n">
-        <v>4.0</v>
+        <v>129.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>534.99</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>647.35</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>17.1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="H18" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>437.63</v>
+        <v>17.53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>647.35</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>534.99</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>492.2</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>437.63</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>17.1</v>
+        <v>37.44</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="H24" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F26" s="9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G26" s="7" t="s">
+        <v>23.53</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="9" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>0.6</v>
+        <v>5.87</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>13.19</v>
+        <v>5.87</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="9" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>7.47</v>
+        <v>53.49</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>32.07</v>
+        <v>9.58</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="7"/>
       <c r="D32" s="9" t="n">
-        <v>3.0</v>
+        <v>43.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>5.34</v>
+        <v>1.11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="9" t="n">
-        <v>41.0</v>
+        <v>9.0</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="H33" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>2.08</v>
+        <v>11.76</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>91.58</v>
+        <v>7.47</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C37" s="7"/>
       <c r="D37" s="9" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>2.04</v>
+        <v>5.34</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D38" s="9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>1.98</v>
+        <v>0.67</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="D39" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>52.42</v>
+        <v>0.67</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="D40" s="9" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>53.49</v>
+        <v>0.6</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="D41" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>34.23</v>
+        <v>0.6</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="9" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="G42" s="7"/>
+        <v>32.07</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H42" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="D43" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>100.33</v>
-      </c>
-      <c r="G43" s="7"/>
+        <v>21.39</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H43" s="7" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="D44" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>9.58</v>
+        <v>1.92</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="D45" s="9" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G45" s="7"/>
+        <v>2.32</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="H45" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="9" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F46" s="9" t="n">
-        <v>23.51</v>
+        <v>7.47</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C47" s="7"/>
       <c r="D47" s="9" t="n">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>2.49</v>
+        <v>7.47</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>108</v>
-      </c>
+        <v>8.99</v>
+      </c>
+      <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>5.87</v>
+        <v>9.19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D50" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>13.24</v>
+        <v>13.19</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D51" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>1.92</v>
+        <v>13.19</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="9" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>2.32</v>
+        <v>7.09</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="9" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>7.47</v>
+        <v>7.09</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>35.0</v>
+      </c>
+      <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>8.99</v>
+        <v>45.0</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>9.19</v>
+        <v>10.65</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="D57" s="9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>7.09</v>
+        <v>2.08</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="D58" s="9" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>7.09</v>
+        <v>2.49</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="D59" s="9" t="n">
-        <v>2.0</v>
+        <v>48.0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="G59" s="7"/>
+        <v>1.06</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="H59" s="7" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="D60" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="G60" s="7"/>
+        <v>1.98</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="H60" s="7" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="G61" s="7"/>
+        <v>91.58</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="H61" s="7" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>10.65</v>
+        <v>34.23</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D63" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>21.31</v>
+        <v>2.04</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="D64" s="9" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="G64" s="7"/>
+        <v>4.54</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="H64" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>100.33</v>
+      </c>
+      <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="7" t="s">
         <v>143</v>
       </c>
+      <c r="C66" s="7"/>
       <c r="D66" s="9" t="n">
-        <v>48.0</v>
+        <v>4.0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="F66" s="9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G66" s="7" t="s">
+        <v>6.96</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>145</v>
@@ -2810,112 +2818,118 @@
         <v>146</v>
       </c>
       <c r="D67" s="9" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>43.85</v>
+      </c>
+      <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="7"/>
+      <c r="C68" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="D68" s="9" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F68" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G68" s="7"/>
+        <v>2.04</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="H68" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F69" s="9" t="n">
-        <v>352.03</v>
+        <v>23.53</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F70" s="9" t="n">
-        <v>73.83</v>
+        <v>54.71</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="D71" s="9" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>171.19</v>
-      </c>
-      <c r="G71" s="7"/>
+        <v>1.98</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="H71" s="7" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>154</v>
@@ -2925,239 +2939,239 @@
         <v>1.0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F72" s="9" t="n">
-        <v>95.23</v>
+        <v>352.03</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F73" s="9" t="n">
-        <v>212.93</v>
+        <v>73.83</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F74" s="9" t="n">
-        <v>191.53</v>
+        <v>171.19</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>180.83</v>
+        <v>95.23</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F76" s="9" t="n">
-        <v>37.45</v>
+        <v>212.93</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F77" s="9" t="n">
-        <v>255.73</v>
+        <v>191.53</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F78" s="9" t="n">
-        <v>170.13</v>
+        <v>180.83</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F79" s="9" t="n">
-        <v>191.53</v>
+        <v>37.45</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F80" s="9" t="n">
-        <v>576.73</v>
+        <v>255.73</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>26.75</v>
+        <v>170.13</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F82" s="9" t="n">
-        <v>267.49</v>
+        <v>191.53</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>167</v>
@@ -3167,19 +3181,19 @@
         <v>1.0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>95.23</v>
+        <v>576.73</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>168</v>
@@ -3189,1149 +3203,1143 @@
         <v>1.0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F84" s="9" t="n">
-        <v>255.73</v>
+        <v>26.75</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>172</v>
-      </c>
+        <v>267.49</v>
+      </c>
+      <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C86" s="7"/>
       <c r="D86" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F86" s="9" t="n">
-        <v>37.17</v>
+        <v>95.23</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>255.73</v>
+      </c>
+      <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="9" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>6.94</v>
+        <v>6.72</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D89" s="9" t="n">
-        <v>40.0</v>
+        <v>2.0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>182</v>
-      </c>
+        <v>37.17</v>
+      </c>
+      <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F90" s="9" t="n">
-        <v>235.56</v>
+        <v>0.91</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>186</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>266.75</v>
+        <v>0.91</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="9" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>191</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C95" s="7"/>
       <c r="D95" s="9" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>194</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F96" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F97" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F98" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F99" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F100" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G100" s="7"/>
+        <v>8.54</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="H100" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="9" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G101" s="7"/>
+        <v>6.94</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="H101" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G102" s="7"/>
+        <v>7.64</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="H102" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F103" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G103" s="7"/>
+        <v>17.64</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="H103" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="9" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G104" s="7"/>
+        <v>12.82</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="H104" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C105" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="D105" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G105" s="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="H105" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C106" s="7"/>
       <c r="D106" s="9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F106" s="9" t="n">
-        <v>37.45</v>
+        <v>5.0</v>
       </c>
       <c r="G106" s="7"/>
-      <c r="H106" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="H106" s="7"/>
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C107" s="7"/>
       <c r="D107" s="9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>37.45</v>
+        <v>55.64</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>210</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C108" s="7"/>
       <c r="D108" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F108" s="9" t="n">
-        <v>3.2</v>
+        <v>9.62</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>7.64</v>
+        <v>7.97</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C110" s="7"/>
       <c r="D110" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>37.45</v>
+        <v>5.34</v>
       </c>
       <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="H110" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C111" s="7"/>
       <c r="D111" s="9" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F111" s="9" t="n">
-        <v>37.45</v>
+        <v>7.29</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C112" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="D112" s="9" t="n">
-        <v>4.0</v>
+        <v>40.0</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>7.97</v>
+        <v>0.33</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="D113" s="9" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F113" s="9" t="n">
-        <v>5.0</v>
+        <v>37.45</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B114" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="9" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" s="9" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="H114" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="D115" s="9" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>55.64</v>
+        <v>37.45</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C116" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="D116" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>224</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G116" s="7"/>
       <c r="H116" s="7" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C117" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="D117" s="9" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F117" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G117" s="7"/>
       <c r="H117" s="7" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C118" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="D118" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>5.34</v>
+        <v>20.0</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C119" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="D119" s="9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F119" s="9" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>229</v>
-      </c>
+        <v>10.69</v>
+      </c>
+      <c r="G119" s="7"/>
       <c r="H119" s="7" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="9" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="G120" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="H120" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C121" s="7"/>
       <c r="D121" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G121" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="H121" s="7" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C122" s="7"/>
       <c r="D122" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="G122" s="7"/>
+        <v>272.85</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="H122" s="7" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>6.72</v>
+        <v>272.85</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="7"/>
+      <c r="D124" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="9" t="n">
+        <v>235.56</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D124" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F124" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>239</v>
-      </c>
+        <v>266.75</v>
+      </c>
+      <c r="G125" s="7"/>
       <c r="H125" s="7" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>3.83</v>
+        <v>6.72</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C127" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="D127" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>127.33</v>
+        <v>11.76</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="9" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>127.33</v>
+        <v>10.68</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>11.22</v>
+        <v>3.19</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="9" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>10.15</v>
+        <v>12.82</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>10.68</v>
+        <v>11.22</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="9" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>46.86</v>
+        <v>10.15</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D133" s="9" t="n">
         <v>7.0</v>
@@ -4343,24 +4351,24 @@
         <v>0.39</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D134" s="9" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>21</v>
@@ -4369,1150 +4377,1222 @@
         <v>0.38</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C135" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="D135" s="9" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>25.67</v>
+        <v>0.39</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C136" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="D136" s="9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>12.82</v>
+        <v>0.38</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>12.29</v>
+        <v>3.18</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>14.41</v>
+        <v>7.46</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>268</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C139" s="7"/>
       <c r="D139" s="9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>10.15</v>
+        <v>3.19</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>255</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C140" s="7"/>
       <c r="D140" s="9" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>0.39</v>
+        <v>3.83</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D141" s="9" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>0.38</v>
+        <v>10.15</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>7.46</v>
+        <v>127.33</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>3.19</v>
+        <v>127.33</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>3.18</v>
+        <v>25.67</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>236</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C145" s="7"/>
       <c r="D145" s="9" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>11.76</v>
+        <v>46.86</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="9" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>3.95</v>
+        <v>12.29</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>8.55</v>
+        <v>14.41</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="D148" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F148" s="9" t="n">
-        <v>8.24</v>
+        <v>11.76</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>289</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C149" s="7"/>
       <c r="D149" s="9" t="n">
         <v>6.0</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>290</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G149" s="7"/>
       <c r="H149" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>9.62</v>
+        <v>21.39</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C151" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="D151" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>12.27</v>
+        <v>1.31</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>4.78</v>
+        <v>9.61</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C153" s="7"/>
+        <v>294</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="D153" s="9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G153" s="7"/>
+        <v>4.26</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="H153" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>10.56</v>
+        <v>37.66</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C155" s="7"/>
+        <v>298</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="D155" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>21.39</v>
+        <v>2.66</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>6.41</v>
+        <v>4.78</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>11.76</v>
+        <v>3.95</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>6.41</v>
+        <v>9.62</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C159" s="7"/>
       <c r="D159" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>1.31</v>
+        <v>9.62</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>9.61</v>
+        <v>19.25</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C161" s="7"/>
       <c r="D161" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>4.26</v>
+        <v>11.76</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>37.66</v>
+        <v>6.41</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C163" s="7"/>
       <c r="D163" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>2.32</v>
+        <v>7.48</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>9.62</v>
+        <v>11.76</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="9" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>19.25</v>
+        <v>8.55</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>324</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C166" s="7"/>
       <c r="D166" s="9" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>1.28</v>
+        <v>2.97</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>5.55</v>
+        <v>6.41</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>2.45</v>
+        <v>7.48</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>330</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C169" s="7"/>
+        <v>326</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="D169" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>7.48</v>
+        <v>1.28</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>7.48</v>
+        <v>5.55</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C171" s="7"/>
+        <v>331</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="D171" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>73.83</v>
+        <v>5.32</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F172" s="9" t="n">
         <v>5.34</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="9" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>11.76</v>
+        <v>6.4</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C174" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="D174" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>105.93</v>
+        <v>2.32</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>6.4</v>
+        <v>105.93</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C176" s="7"/>
       <c r="D176" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>2.66</v>
+        <v>73.83</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C177" s="7"/>
       <c r="D177" s="9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>5.32</v>
+        <v>12.27</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>2.97</v>
+        <v>10.56</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="F179" s="9" t="n">
-        <v>5.99</v>
+        <v>2.45</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>25</v>
+        <v>348</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F180" s="9" t="n">
         <v>8.24</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="H180" s="7"/>
     </row>
-    <row r="181"/>
+    <row r="181">
+      <c r="A181" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F181" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="182">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D182" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F182" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="10" t="n">
-        <v>849.0</v>
-      </c>
-      <c r="E182" s="8"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
+      <c r="H182" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D183" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F183" s="9" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184"/>
+    <row r="185">
+      <c r="A185" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="10" t="n">
+        <v>989.0</v>
+      </c>
+      <c r="E185" s="8"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/newton.xlsx
+++ b/newton.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/17/2025 07:54 PM</t>
+      <t>06/17/2025 08:16 PM</t>
     </r>
   </si>
   <si>
